--- a/models/energy.xlsx
+++ b/models/energy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14220" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14220" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="2" r:id="rId1"/>
@@ -108,6 +108,8 @@
     <definedName name="efficiency_waste_for_heat_plants" localSheetId="1">World!$C$41</definedName>
     <definedName name="eroi_initial_res_elec_dispatch" localSheetId="0">Global!$B$4:$B$11</definedName>
     <definedName name="esoi_phs_depleted_potential" localSheetId="0">Global!$G$30</definedName>
+    <definedName name="geot_PE_potential_heat" localSheetId="3">Austria!$C$214</definedName>
+    <definedName name="geot_PE_potential_heat" localSheetId="2">Europe!$C$208</definedName>
     <definedName name="grid_reinforcement_costs" localSheetId="0">Global!$C$51</definedName>
     <definedName name="gtl_efficiency" localSheetId="0">Global!$C$33</definedName>
     <definedName name="historic_average_domestic_uranium_extraction" localSheetId="3">Austria!$Z$179</definedName>
@@ -314,6 +316,8 @@
     <definedName name="lifetime_res_elec" localSheetId="0">Global!$C$4:$C$11</definedName>
     <definedName name="lifetime_res_for_heat" localSheetId="0">Global!$C$15:$C$17</definedName>
     <definedName name="losses_solar_for_heat" localSheetId="0">Global!$G$37</definedName>
+    <definedName name="max_additional_pot_land_biofuels" localSheetId="3">Austria!$C$211</definedName>
+    <definedName name="max_biogases_potential" localSheetId="1">World!$C$193</definedName>
     <definedName name="max_extraction_agg_gas" localSheetId="3">Austria!$E$62:$S$62</definedName>
     <definedName name="max_extraction_agg_gas" localSheetId="2">Europe!$E$62:$AH$62</definedName>
     <definedName name="max_extraction_agg_gas" localSheetId="1">World!$E$62:$AE$62</definedName>
@@ -341,6 +345,8 @@
     <definedName name="max_hydro_potential" localSheetId="3">Austria!$C$203</definedName>
     <definedName name="max_hydro_potential" localSheetId="2">Europe!$C$201</definedName>
     <definedName name="max_hydro_potential" localSheetId="1">World!$C$186</definedName>
+    <definedName name="max_NPP_pot_bioe_res" localSheetId="1">World!$C$195</definedName>
+    <definedName name="max_NPP_pot_bioe_residues" localSheetId="3">Austria!$C$210</definedName>
     <definedName name="max_oceanic_potential" localSheetId="3">Austria!$C$206</definedName>
     <definedName name="max_oceanic_potential" localSheetId="2">Europe!$C$204</definedName>
     <definedName name="max_oceanic_potential" localSheetId="1">World!$C$189</definedName>
@@ -350,13 +356,17 @@
     <definedName name="max_onshore_wind_potential" localSheetId="3">Austria!$C$207</definedName>
     <definedName name="max_onshore_wind_potential" localSheetId="2">Europe!$C$205</definedName>
     <definedName name="max_onshore_wind_potential" localSheetId="1">World!$C$190</definedName>
+    <definedName name="max_PE_biogas" localSheetId="2">Europe!$C$210</definedName>
     <definedName name="max_PE_geot_elec_potential" localSheetId="3">Austria!$C$204</definedName>
     <definedName name="max_PE_geot_elec_potential" localSheetId="2">Europe!$C$202</definedName>
     <definedName name="max_PE_geot_elect_potential" localSheetId="1">World!$C$187</definedName>
+    <definedName name="max_PE_waste" localSheetId="2">Europe!$C$212</definedName>
     <definedName name="max_PHS_potential" localSheetId="3">Austria!$C$205</definedName>
     <definedName name="max_PHS_potential" localSheetId="2">Europe!$C$203</definedName>
-    <definedName name="max_potential_PHS_potential" localSheetId="1">World!$C$188</definedName>
+    <definedName name="max_PHS_potential" localSheetId="1">World!$C$188</definedName>
+    <definedName name="max_pot_NPP_bioe_conv" localSheetId="1">World!$C$194</definedName>
     <definedName name="max_solar_on_land_potential" localSheetId="1">World!$C$192</definedName>
+    <definedName name="max_waste_potential" localSheetId="1">World!$C$196</definedName>
     <definedName name="max_yearly_change_between_sources" localSheetId="3">Austria!$B$195:$P$199</definedName>
     <definedName name="max_yearly_change_between_sources" localSheetId="2">Europe!$B$193:$P$197</definedName>
     <definedName name="max_yearly_change_between_sources" localSheetId="1">World!$B$178:$P$182</definedName>
@@ -383,6 +393,7 @@
     <definedName name="performance_ratio_over_the_plant_lifecycle_of_solar_pv" localSheetId="2">Europe!$C$73</definedName>
     <definedName name="planning_time_nuclear" localSheetId="0">Global!$G$13</definedName>
     <definedName name="planning_time_res_elec" localSheetId="0">Global!$G$4:$G$11</definedName>
+    <definedName name="pot_marg_land_biofuels" localSheetId="3">Austria!$C$212</definedName>
     <definedName name="power_density_res_elec" localSheetId="0">Global!$D$4:$D$11</definedName>
     <definedName name="production_of_second_generation_biofuel_2015" localSheetId="3">Austria!$W$130</definedName>
     <definedName name="ratio_gain_gas_vs_losses_solids_in_tranformation_processes" localSheetId="3">Austria!$C$168:$X$168</definedName>
@@ -10462,7 +10473,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="357">
   <si>
     <t>Type</t>
   </si>
@@ -11517,6 +11528,45 @@
   <si>
     <t>Techno-ecological potential electric RES</t>
   </si>
+  <si>
+    <t>Max biogases</t>
+  </si>
+  <si>
+    <t>Max potential NPP bioE conventional for heat+elec</t>
+  </si>
+  <si>
+    <t>Max NPP potential BioE residues</t>
+  </si>
+  <si>
+    <t>max waste</t>
+  </si>
+  <si>
+    <t>Techno-ecological potential RES for heat</t>
+  </si>
+  <si>
+    <t>FE solar thermal potential</t>
+  </si>
+  <si>
+    <t>Geot PE potential for heat TWth</t>
+  </si>
+  <si>
+    <t>Techno-ecological potential BioEnergy</t>
+  </si>
+  <si>
+    <t>Max additional potential land for biofuels (land competition)</t>
+  </si>
+  <si>
+    <t>share of Agricultural Land</t>
+  </si>
+  <si>
+    <t>Potential marginal land available for biofuels</t>
+  </si>
+  <si>
+    <t>max PE waste</t>
+  </si>
+  <si>
+    <t>Max PE biogas</t>
+  </si>
 </sst>
 </file>
 
@@ -11666,7 +11716,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11774,8 +11824,20 @@
         <bgColor rgb="FF00B0F0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF33"/>
+        <bgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -12358,6 +12420,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -12366,7 +12437,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="318">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -12953,7 +13024,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -12962,6 +13032,14 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -13451,20 +13529,20 @@
       <c r="G2" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="273" t="s">
+      <c r="H2" s="280" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="273"/>
-      <c r="J2" s="273"/>
-      <c r="K2" s="273"/>
-      <c r="L2" s="273"/>
-      <c r="M2" s="273"/>
-      <c r="N2" s="273"/>
-      <c r="O2" s="273"/>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="273"/>
-      <c r="S2" s="273"/>
+      <c r="I2" s="280"/>
+      <c r="J2" s="280"/>
+      <c r="K2" s="280"/>
+      <c r="L2" s="280"/>
+      <c r="M2" s="280"/>
+      <c r="N2" s="280"/>
+      <c r="O2" s="280"/>
+      <c r="P2" s="280"/>
+      <c r="Q2" s="280"/>
+      <c r="R2" s="280"/>
+      <c r="S2" s="280"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="29"/>
@@ -14561,11 +14639,11 @@
       <c r="A44" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="274" t="s">
+      <c r="E44" s="281" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="274"/>
-      <c r="G44" s="274"/>
+      <c r="F44" s="281"/>
+      <c r="G44" s="281"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="7" t="s">
@@ -14694,10 +14772,10 @@
   <sheetPr>
     <tabColor rgb="FF595959"/>
   </sheetPr>
-  <dimension ref="A2:AT192"/>
+  <dimension ref="A2:AT199"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E190" sqref="E190"/>
+    <sheetView topLeftCell="A161" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -15323,23 +15401,23 @@
       </c>
     </row>
     <row r="22" spans="1:46">
-      <c r="A22" s="279"/>
-      <c r="B22" s="279"/>
-      <c r="C22" s="279"/>
+      <c r="A22" s="286"/>
+      <c r="B22" s="286"/>
+      <c r="C22" s="286"/>
       <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="A23" s="288"/>
-      <c r="B23" s="288"/>
-      <c r="C23" s="288"/>
+      <c r="A23" s="295"/>
+      <c r="B23" s="295"/>
+      <c r="C23" s="295"/>
       <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:46">
-      <c r="A24" s="285" t="s">
+      <c r="A24" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="286"/>
-      <c r="C24" s="287"/>
+      <c r="B24" s="293"/>
+      <c r="C24" s="294"/>
       <c r="D24" s="13"/>
       <c r="H24" s="13"/>
       <c r="L24" s="20"/>
@@ -15395,11 +15473,11 @@
       <c r="Q26" s="32"/>
     </row>
     <row r="27" spans="1:46">
-      <c r="A27" s="282" t="s">
+      <c r="A27" s="289" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="283"/>
-      <c r="C27" s="284"/>
+      <c r="B27" s="290"/>
+      <c r="C27" s="291"/>
       <c r="D27" s="13"/>
       <c r="E27" s="7" t="s">
         <v>27</v>
@@ -15426,14 +15504,14 @@
         <v>39.625999999999998</v>
       </c>
       <c r="D28" s="17"/>
-      <c r="E28" s="282" t="s">
+      <c r="E28" s="289" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="283"/>
-      <c r="G28" s="284"/>
-      <c r="H28" s="281"/>
-      <c r="I28" s="281"/>
-      <c r="J28" s="281"/>
+      <c r="F28" s="290"/>
+      <c r="G28" s="291"/>
+      <c r="H28" s="288"/>
+      <c r="I28" s="288"/>
+      <c r="J28" s="288"/>
       <c r="L28" s="19"/>
     </row>
     <row r="29" spans="1:46">
@@ -15458,17 +15536,17 @@
       </c>
     </row>
     <row r="30" spans="1:46">
-      <c r="A30" s="280" t="s">
+      <c r="A30" s="287" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="280"/>
-      <c r="C30" s="280"/>
+      <c r="B30" s="287"/>
+      <c r="C30" s="287"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="282" t="s">
+      <c r="E30" s="289" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="283"/>
-      <c r="G30" s="284"/>
+      <c r="F30" s="290"/>
+      <c r="G30" s="291"/>
       <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:46">
@@ -15503,11 +15581,11 @@
       <c r="C32" s="8">
         <v>0.76834862385321101</v>
       </c>
-      <c r="E32" s="282" t="s">
+      <c r="E32" s="289" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="283"/>
-      <c r="G32" s="284"/>
+      <c r="F32" s="290"/>
+      <c r="G32" s="291"/>
       <c r="L32" s="23"/>
     </row>
     <row r="33" spans="1:34">
@@ -15550,16 +15628,16 @@
       <c r="L35" s="23"/>
     </row>
     <row r="36" spans="1:34">
-      <c r="A36" s="282" t="s">
+      <c r="A36" s="289" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="283"/>
-      <c r="C36" s="284"/>
-      <c r="E36" s="295" t="s">
+      <c r="B36" s="290"/>
+      <c r="C36" s="291"/>
+      <c r="E36" s="302" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="296"/>
-      <c r="G36" s="297"/>
+      <c r="F36" s="303"/>
+      <c r="G36" s="304"/>
     </row>
     <row r="37" spans="1:34">
       <c r="A37" s="7" t="s">
@@ -15843,13 +15921,13 @@
       <c r="AH49" s="105"/>
     </row>
     <row r="50" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A50" s="290" t="s">
+      <c r="A50" s="297" t="s">
         <v>129</v>
       </c>
-      <c r="B50" s="277" t="s">
+      <c r="B50" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="291">
+      <c r="C50" s="298">
         <v>14500</v>
       </c>
       <c r="D50" s="106" t="s">
@@ -15947,9 +16025,9 @@
       </c>
     </row>
     <row r="51" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A51" s="290"/>
-      <c r="B51" s="290"/>
-      <c r="C51" s="291"/>
+      <c r="A51" s="297"/>
+      <c r="B51" s="297"/>
+      <c r="C51" s="298"/>
       <c r="D51" s="106" t="s">
         <v>123</v>
       </c>
@@ -16045,13 +16123,13 @@
       </c>
     </row>
     <row r="52" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A52" s="278" t="s">
+      <c r="A52" s="285" t="s">
         <v>133</v>
       </c>
-      <c r="B52" s="277" t="s">
+      <c r="B52" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="289">
+      <c r="C52" s="296">
         <v>10500</v>
       </c>
       <c r="D52" s="106" t="s">
@@ -16133,9 +16211,9 @@
       <c r="AH52" s="108"/>
     </row>
     <row r="53" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A53" s="278"/>
-      <c r="B53" s="277"/>
-      <c r="C53" s="289"/>
+      <c r="A53" s="285"/>
+      <c r="B53" s="284"/>
+      <c r="C53" s="296"/>
       <c r="D53" s="106" t="s">
         <v>123</v>
       </c>
@@ -16215,13 +16293,13 @@
       <c r="AH53" s="117"/>
     </row>
     <row r="54" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A54" s="277" t="s">
+      <c r="A54" s="284" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="275">
+      <c r="B54" s="282">
         <v>0.5</v>
       </c>
-      <c r="C54" s="276">
+      <c r="C54" s="283">
         <v>16800</v>
       </c>
       <c r="D54" s="106" t="s">
@@ -16317,9 +16395,9 @@
       <c r="AH54" s="108"/>
     </row>
     <row r="55" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A55" s="277"/>
-      <c r="B55" s="275"/>
-      <c r="C55" s="275"/>
+      <c r="A55" s="284"/>
+      <c r="B55" s="282"/>
+      <c r="C55" s="282"/>
       <c r="D55" s="106" t="s">
         <v>123</v>
       </c>
@@ -16451,13 +16529,13 @@
       <c r="AH56" s="105"/>
     </row>
     <row r="57" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A57" s="277" t="s">
+      <c r="A57" s="284" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="277" t="s">
+      <c r="B57" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="276">
+      <c r="C57" s="283">
         <v>13200</v>
       </c>
       <c r="D57" s="106" t="s">
@@ -16519,9 +16597,9 @@
       <c r="AH57" s="108"/>
     </row>
     <row r="58" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A58" s="277"/>
-      <c r="B58" s="277"/>
-      <c r="C58" s="276"/>
+      <c r="A58" s="284"/>
+      <c r="B58" s="284"/>
+      <c r="C58" s="283"/>
       <c r="D58" s="106" t="s">
         <v>123</v>
       </c>
@@ -16581,13 +16659,13 @@
       <c r="AH58" s="111"/>
     </row>
     <row r="59" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A59" s="278" t="s">
+      <c r="A59" s="285" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="277" t="s">
+      <c r="B59" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="276">
+      <c r="C59" s="283">
         <v>14500</v>
       </c>
       <c r="D59" s="106" t="s">
@@ -16685,9 +16763,9 @@
       </c>
     </row>
     <row r="60" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A60" s="278"/>
-      <c r="B60" s="277"/>
-      <c r="C60" s="276"/>
+      <c r="A60" s="285"/>
+      <c r="B60" s="284"/>
+      <c r="C60" s="283"/>
       <c r="D60" s="106" t="s">
         <v>123</v>
       </c>
@@ -16783,13 +16861,13 @@
       </c>
     </row>
     <row r="61" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A61" s="277" t="s">
+      <c r="A61" s="284" t="s">
         <v>131</v>
       </c>
-      <c r="B61" s="275">
+      <c r="B61" s="282">
         <v>0.25</v>
       </c>
-      <c r="C61" s="276">
+      <c r="C61" s="283">
         <v>13000</v>
       </c>
       <c r="D61" s="106" t="s">
@@ -16881,9 +16959,9 @@
       <c r="AH61" s="108"/>
     </row>
     <row r="62" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A62" s="277"/>
-      <c r="B62" s="275"/>
-      <c r="C62" s="275"/>
+      <c r="A62" s="284"/>
+      <c r="B62" s="282"/>
+      <c r="C62" s="282"/>
       <c r="D62" s="106" t="s">
         <v>123</v>
       </c>
@@ -17011,13 +17089,13 @@
       <c r="AH63" s="105"/>
     </row>
     <row r="64" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A64" s="277" t="s">
+      <c r="A64" s="284" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="278" t="s">
+      <c r="B64" s="285" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="276">
+      <c r="C64" s="283">
         <v>22500</v>
       </c>
       <c r="D64" s="106" t="s">
@@ -17087,9 +17165,9 @@
       <c r="AH64" s="108"/>
     </row>
     <row r="65" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A65" s="277"/>
-      <c r="B65" s="278"/>
-      <c r="C65" s="276"/>
+      <c r="A65" s="284"/>
+      <c r="B65" s="285"/>
+      <c r="C65" s="283"/>
       <c r="D65" s="106" t="s">
         <v>123</v>
       </c>
@@ -17195,13 +17273,13 @@
       <c r="AH66" s="105"/>
     </row>
     <row r="67" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A67" s="277" t="s">
+      <c r="A67" s="284" t="s">
         <v>128</v>
       </c>
-      <c r="B67" s="277" t="s">
+      <c r="B67" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="276">
+      <c r="C67" s="283">
         <v>3700</v>
       </c>
       <c r="D67" s="106" t="s">
@@ -17267,9 +17345,9 @@
       <c r="AH67" s="108"/>
     </row>
     <row r="68" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A68" s="277"/>
-      <c r="B68" s="277"/>
-      <c r="C68" s="276"/>
+      <c r="A68" s="284"/>
+      <c r="B68" s="284"/>
+      <c r="C68" s="283"/>
       <c r="D68" s="106" t="s">
         <v>123</v>
       </c>
@@ -17333,16 +17411,16 @@
       <c r="AH68" s="111"/>
     </row>
     <row r="71" spans="1:34">
-      <c r="A71" s="292" t="s">
+      <c r="A71" s="299" t="s">
         <v>189</v>
       </c>
-      <c r="B71" s="293"/>
-      <c r="C71" s="294"/>
-      <c r="E71" s="292" t="s">
+      <c r="B71" s="300"/>
+      <c r="C71" s="301"/>
+      <c r="E71" s="299" t="s">
         <v>216</v>
       </c>
-      <c r="F71" s="293"/>
-      <c r="G71" s="293"/>
+      <c r="F71" s="300"/>
+      <c r="G71" s="300"/>
     </row>
     <row r="72" spans="1:34">
       <c r="A72" s="170" t="s">
@@ -17597,10 +17675,10 @@
       </c>
     </row>
     <row r="92" spans="1:26">
-      <c r="A92" s="292" t="s">
+      <c r="A92" s="299" t="s">
         <v>25</v>
       </c>
-      <c r="B92" s="294"/>
+      <c r="B92" s="301"/>
       <c r="C92" s="183">
         <v>1995</v>
       </c>
@@ -22813,15 +22891,15 @@
       <c r="P183" s="259"/>
     </row>
     <row r="185" spans="1:16">
-      <c r="A185" s="266" t="s">
+      <c r="A185" s="265" t="s">
         <v>343</v>
       </c>
-      <c r="B185" s="265"/>
-      <c r="C185" s="265"/>
-      <c r="D185" s="265"/>
-      <c r="E185" s="265"/>
-      <c r="F185" s="265"/>
-      <c r="G185" s="265"/>
+      <c r="B185" s="264"/>
+      <c r="C185" s="264"/>
+      <c r="D185" s="264"/>
+      <c r="E185" s="264"/>
+      <c r="F185" s="264"/>
+      <c r="G185" s="264"/>
     </row>
     <row r="186" spans="1:16">
       <c r="A186" s="263" t="s">
@@ -22918,6 +22996,79 @@
       <c r="E192" s="39"/>
       <c r="F192" s="13"/>
       <c r="G192" s="39"/>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="272" t="s">
+        <v>344</v>
+      </c>
+      <c r="B193" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C193" s="273">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="272" t="s">
+        <v>345</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C194" s="273">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="272" t="s">
+        <v>346</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C195" s="273">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="272" t="s">
+        <v>347</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C196" s="273">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="265" t="s">
+        <v>348</v>
+      </c>
+      <c r="B197" s="264"/>
+      <c r="C197" s="264"/>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="272" t="s">
+        <v>349</v>
+      </c>
+      <c r="B198" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C198" s="273">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="272" t="s">
+        <v>350</v>
+      </c>
+      <c r="B199" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="C199" s="273">
+        <v>0.3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -22982,10 +23133,10 @@
   <sheetPr>
     <tabColor rgb="FF595959"/>
   </sheetPr>
-  <dimension ref="A2:AT207"/>
+  <dimension ref="A2:AT212"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C203" sqref="C203"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -23591,23 +23742,23 @@
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:46">
-      <c r="A22" s="279"/>
-      <c r="B22" s="279"/>
-      <c r="C22" s="279"/>
+      <c r="A22" s="286"/>
+      <c r="B22" s="286"/>
+      <c r="C22" s="286"/>
       <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="A23" s="288"/>
-      <c r="B23" s="288"/>
-      <c r="C23" s="288"/>
+      <c r="A23" s="295"/>
+      <c r="B23" s="295"/>
+      <c r="C23" s="295"/>
       <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:46">
-      <c r="A24" s="285" t="s">
+      <c r="A24" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="286"/>
-      <c r="C24" s="287"/>
+      <c r="B24" s="293"/>
+      <c r="C24" s="294"/>
       <c r="D24" s="13"/>
       <c r="H24" s="13"/>
       <c r="L24" s="20"/>
@@ -23663,11 +23814,11 @@
       <c r="Q26" s="32"/>
     </row>
     <row r="27" spans="1:46">
-      <c r="A27" s="282" t="s">
+      <c r="A27" s="289" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="283"/>
-      <c r="C27" s="284"/>
+      <c r="B27" s="290"/>
+      <c r="C27" s="291"/>
       <c r="D27" s="13"/>
       <c r="E27" s="7" t="s">
         <v>27</v>
@@ -23694,14 +23845,14 @@
         <v>0</v>
       </c>
       <c r="D28" s="17"/>
-      <c r="E28" s="282" t="s">
+      <c r="E28" s="289" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="283"/>
-      <c r="G28" s="284"/>
-      <c r="H28" s="281"/>
-      <c r="I28" s="281"/>
-      <c r="J28" s="281"/>
+      <c r="F28" s="290"/>
+      <c r="G28" s="291"/>
+      <c r="H28" s="288"/>
+      <c r="I28" s="288"/>
+      <c r="J28" s="288"/>
       <c r="L28" s="19"/>
     </row>
     <row r="29" spans="1:46">
@@ -23720,17 +23871,17 @@
       </c>
     </row>
     <row r="30" spans="1:46">
-      <c r="A30" s="280" t="s">
+      <c r="A30" s="287" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="280"/>
-      <c r="C30" s="280"/>
+      <c r="B30" s="287"/>
+      <c r="C30" s="287"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="282" t="s">
+      <c r="E30" s="289" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="283"/>
-      <c r="G30" s="284"/>
+      <c r="F30" s="290"/>
+      <c r="G30" s="291"/>
       <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:46">
@@ -23766,11 +23917,11 @@
       <c r="C32" s="74">
         <v>0.76834862385321101</v>
       </c>
-      <c r="E32" s="282" t="s">
+      <c r="E32" s="289" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="283"/>
-      <c r="G32" s="284"/>
+      <c r="F32" s="290"/>
+      <c r="G32" s="291"/>
       <c r="L32" s="23"/>
     </row>
     <row r="33" spans="1:34">
@@ -23813,16 +23964,16 @@
       <c r="L35" s="23"/>
     </row>
     <row r="36" spans="1:34">
-      <c r="A36" s="282" t="s">
+      <c r="A36" s="289" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="283"/>
-      <c r="C36" s="284"/>
-      <c r="E36" s="295" t="s">
+      <c r="B36" s="290"/>
+      <c r="C36" s="291"/>
+      <c r="E36" s="302" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="296"/>
-      <c r="G36" s="297"/>
+      <c r="F36" s="303"/>
+      <c r="G36" s="304"/>
     </row>
     <row r="37" spans="1:34">
       <c r="A37" s="7" t="s">
@@ -24106,13 +24257,13 @@
       <c r="AH49" s="105"/>
     </row>
     <row r="50" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A50" s="290" t="s">
+      <c r="A50" s="297" t="s">
         <v>129</v>
       </c>
-      <c r="B50" s="277" t="s">
+      <c r="B50" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="298">
+      <c r="C50" s="305">
         <v>411.48014529125697</v>
       </c>
       <c r="D50" s="106" t="s">
@@ -24186,9 +24337,9 @@
       <c r="AH50" s="113"/>
     </row>
     <row r="51" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A51" s="290"/>
-      <c r="B51" s="290"/>
-      <c r="C51" s="298"/>
+      <c r="A51" s="297"/>
+      <c r="B51" s="297"/>
+      <c r="C51" s="305"/>
       <c r="D51" s="106" t="s">
         <v>123</v>
       </c>
@@ -24260,13 +24411,13 @@
       <c r="AH51" s="114"/>
     </row>
     <row r="52" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A52" s="278" t="s">
+      <c r="A52" s="285" t="s">
         <v>133</v>
       </c>
-      <c r="B52" s="277" t="s">
+      <c r="B52" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="298">
+      <c r="C52" s="305">
         <v>77.5139928551</v>
       </c>
       <c r="D52" s="138" t="s">
@@ -24338,9 +24489,9 @@
       <c r="AH52" s="108"/>
     </row>
     <row r="53" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A53" s="278"/>
-      <c r="B53" s="277"/>
-      <c r="C53" s="298"/>
+      <c r="A53" s="285"/>
+      <c r="B53" s="284"/>
+      <c r="C53" s="305"/>
       <c r="D53" s="138" t="s">
         <v>123</v>
       </c>
@@ -24410,13 +24561,13 @@
       <c r="AH53" s="117"/>
     </row>
     <row r="54" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A54" s="277" t="s">
+      <c r="A54" s="284" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="299">
+      <c r="B54" s="306">
         <v>0.5</v>
       </c>
-      <c r="C54" s="300">
+      <c r="C54" s="307">
         <v>14500</v>
       </c>
       <c r="D54" s="138" t="s">
@@ -24514,9 +24665,9 @@
       </c>
     </row>
     <row r="55" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A55" s="277"/>
-      <c r="B55" s="299"/>
-      <c r="C55" s="299"/>
+      <c r="A55" s="284"/>
+      <c r="B55" s="306"/>
+      <c r="C55" s="306"/>
       <c r="D55" s="138" t="s">
         <v>123</v>
       </c>
@@ -24650,13 +24801,13 @@
       <c r="AH56" s="105"/>
     </row>
     <row r="57" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A57" s="277" t="s">
+      <c r="A57" s="284" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="277" t="s">
+      <c r="B57" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="298">
+      <c r="C57" s="305">
         <v>538.005973433431</v>
       </c>
       <c r="D57" s="106" t="s">
@@ -24728,9 +24879,9 @@
       <c r="AH57" s="108"/>
     </row>
     <row r="58" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A58" s="277"/>
-      <c r="B58" s="277"/>
-      <c r="C58" s="298"/>
+      <c r="A58" s="284"/>
+      <c r="B58" s="284"/>
+      <c r="C58" s="305"/>
       <c r="D58" s="106" t="s">
         <v>123</v>
       </c>
@@ -24800,13 +24951,13 @@
       <c r="AH58" s="111"/>
     </row>
     <row r="59" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A59" s="278" t="s">
+      <c r="A59" s="285" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="277" t="s">
+      <c r="B59" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="298">
+      <c r="C59" s="305">
         <v>70.703999727247606</v>
       </c>
       <c r="D59" s="106" t="s">
@@ -24884,9 +25035,9 @@
       <c r="AH59" s="108"/>
     </row>
     <row r="60" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A60" s="278"/>
-      <c r="B60" s="277"/>
-      <c r="C60" s="298"/>
+      <c r="A60" s="285"/>
+      <c r="B60" s="284"/>
+      <c r="C60" s="305"/>
       <c r="D60" s="106" t="s">
         <v>123</v>
       </c>
@@ -24962,13 +25113,13 @@
       <c r="AH60" s="117"/>
     </row>
     <row r="61" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A61" s="277" t="s">
+      <c r="A61" s="284" t="s">
         <v>131</v>
       </c>
-      <c r="B61" s="299">
+      <c r="B61" s="306">
         <v>0.5</v>
       </c>
-      <c r="C61" s="300">
+      <c r="C61" s="307">
         <v>14500</v>
       </c>
       <c r="D61" s="138" t="s">
@@ -25066,9 +25217,9 @@
       </c>
     </row>
     <row r="62" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A62" s="277"/>
-      <c r="B62" s="299"/>
-      <c r="C62" s="299"/>
+      <c r="A62" s="284"/>
+      <c r="B62" s="306"/>
+      <c r="C62" s="306"/>
       <c r="D62" s="138" t="s">
         <v>123</v>
       </c>
@@ -25202,13 +25353,13 @@
       <c r="AH63" s="105"/>
     </row>
     <row r="64" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A64" s="277" t="s">
+      <c r="A64" s="284" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="278" t="s">
+      <c r="B64" s="285" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="298">
+      <c r="C64" s="305">
         <f>+E64</f>
         <v>2309.2137610162299</v>
       </c>
@@ -25279,9 +25430,9 @@
       <c r="AH64" s="108"/>
     </row>
     <row r="65" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A65" s="277"/>
-      <c r="B65" s="278"/>
-      <c r="C65" s="298"/>
+      <c r="A65" s="284"/>
+      <c r="B65" s="285"/>
+      <c r="C65" s="305"/>
       <c r="D65" s="106" t="s">
         <v>123</v>
       </c>
@@ -25387,13 +25538,13 @@
       <c r="AH66" s="105"/>
     </row>
     <row r="67" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A67" s="277" t="s">
+      <c r="A67" s="284" t="s">
         <v>128</v>
       </c>
-      <c r="B67" s="277" t="s">
+      <c r="B67" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="300">
+      <c r="C67" s="307">
         <v>14500</v>
       </c>
       <c r="D67" s="106" t="s">
@@ -25491,9 +25642,9 @@
       </c>
     </row>
     <row r="68" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A68" s="277"/>
-      <c r="B68" s="277"/>
-      <c r="C68" s="299"/>
+      <c r="A68" s="284"/>
+      <c r="B68" s="284"/>
+      <c r="C68" s="306"/>
       <c r="D68" s="106" t="s">
         <v>123</v>
       </c>
@@ -25604,11 +25755,11 @@
     </row>
     <row r="71" spans="1:34" ht="15.75" thickBot="1"/>
     <row r="72" spans="1:34">
-      <c r="A72" s="301" t="s">
+      <c r="A72" s="308" t="s">
         <v>113</v>
       </c>
-      <c r="B72" s="302"/>
-      <c r="C72" s="303"/>
+      <c r="B72" s="309"/>
+      <c r="C72" s="310"/>
     </row>
     <row r="73" spans="1:34">
       <c r="A73" s="80" t="s">
@@ -25650,16 +25801,16 @@
       <c r="G76" s="72"/>
     </row>
     <row r="78" spans="1:34">
-      <c r="A78" s="292" t="s">
+      <c r="A78" s="299" t="s">
         <v>189</v>
       </c>
-      <c r="B78" s="293"/>
-      <c r="C78" s="294"/>
-      <c r="E78" s="292" t="s">
+      <c r="B78" s="300"/>
+      <c r="C78" s="301"/>
+      <c r="E78" s="299" t="s">
         <v>216</v>
       </c>
-      <c r="F78" s="293"/>
-      <c r="G78" s="293"/>
+      <c r="F78" s="300"/>
+      <c r="G78" s="300"/>
     </row>
     <row r="79" spans="1:34">
       <c r="A79" s="172" t="s">
@@ -25914,10 +26065,10 @@
       </c>
     </row>
     <row r="99" spans="1:26">
-      <c r="A99" s="292" t="s">
+      <c r="A99" s="299" t="s">
         <v>25</v>
       </c>
-      <c r="B99" s="294"/>
+      <c r="B99" s="301"/>
       <c r="C99" s="183">
         <v>1995</v>
       </c>
@@ -31475,12 +31626,12 @@
       </c>
     </row>
     <row r="200" spans="1:16">
-      <c r="A200" s="266" t="s">
+      <c r="A200" s="265" t="s">
         <v>343</v>
       </c>
-      <c r="B200" s="265"/>
-      <c r="C200" s="265"/>
-      <c r="D200" s="265"/>
+      <c r="B200" s="264"/>
+      <c r="C200" s="264"/>
+      <c r="D200" s="264"/>
     </row>
     <row r="201" spans="1:16">
       <c r="A201" s="263" t="s">
@@ -31555,10 +31706,52 @@
       <c r="D206" s="39"/>
     </row>
     <row r="207" spans="1:16">
-      <c r="A207" s="8"/>
+      <c r="A207" s="265" t="s">
+        <v>348</v>
+      </c>
       <c r="B207" s="264"/>
       <c r="C207" s="264"/>
-      <c r="D207" s="272"/>
+      <c r="D207" s="271"/>
+    </row>
+    <row r="208" spans="1:16">
+      <c r="A208" s="263" t="s">
+        <v>350</v>
+      </c>
+      <c r="B208" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="C208" s="262">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="265" t="s">
+        <v>74</v>
+      </c>
+      <c r="B209" s="264"/>
+      <c r="C209" s="264"/>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="263" t="s">
+        <v>356</v>
+      </c>
+      <c r="B210" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C210" s="262">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="263" t="s">
+        <v>355</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C212" s="262">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="39">
@@ -31603,7 +31796,7 @@
     <mergeCell ref="E36:G36"/>
   </mergeCells>
   <conditionalFormatting sqref="B180:P180">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31624,10 +31817,10 @@
   <sheetPr>
     <tabColor rgb="FF595959"/>
   </sheetPr>
-  <dimension ref="A2:AT208"/>
+  <dimension ref="A2:AT214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C208" sqref="C208"/>
+    <sheetView topLeftCell="A188" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A223" sqref="A223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -32233,23 +32426,23 @@
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:46">
-      <c r="A22" s="279"/>
-      <c r="B22" s="279"/>
-      <c r="C22" s="279"/>
+      <c r="A22" s="286"/>
+      <c r="B22" s="286"/>
+      <c r="C22" s="286"/>
       <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="A23" s="288"/>
-      <c r="B23" s="288"/>
-      <c r="C23" s="288"/>
+      <c r="A23" s="295"/>
+      <c r="B23" s="295"/>
+      <c r="C23" s="295"/>
       <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:46">
-      <c r="A24" s="285" t="s">
+      <c r="A24" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="286"/>
-      <c r="C24" s="287"/>
+      <c r="B24" s="293"/>
+      <c r="C24" s="294"/>
       <c r="D24" s="13"/>
       <c r="H24" s="13"/>
       <c r="L24" s="20"/>
@@ -32305,11 +32498,11 @@
       <c r="Q26" s="32"/>
     </row>
     <row r="27" spans="1:46">
-      <c r="A27" s="282" t="s">
+      <c r="A27" s="289" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="283"/>
-      <c r="C27" s="284"/>
+      <c r="B27" s="290"/>
+      <c r="C27" s="291"/>
       <c r="D27" s="13"/>
       <c r="E27" s="88" t="s">
         <v>27</v>
@@ -32336,14 +32529,14 @@
         <v>0</v>
       </c>
       <c r="D28" s="17"/>
-      <c r="E28" s="280" t="s">
+      <c r="E28" s="287" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="280"/>
-      <c r="G28" s="280"/>
-      <c r="H28" s="281"/>
-      <c r="I28" s="281"/>
-      <c r="J28" s="281"/>
+      <c r="F28" s="287"/>
+      <c r="G28" s="287"/>
+      <c r="H28" s="288"/>
+      <c r="I28" s="288"/>
+      <c r="J28" s="288"/>
       <c r="L28" s="19"/>
     </row>
     <row r="29" spans="1:46">
@@ -32362,17 +32555,17 @@
       </c>
     </row>
     <row r="30" spans="1:46">
-      <c r="A30" s="280" t="s">
+      <c r="A30" s="287" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="280"/>
-      <c r="C30" s="280"/>
+      <c r="B30" s="287"/>
+      <c r="C30" s="287"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="280" t="s">
+      <c r="E30" s="287" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="280"/>
-      <c r="G30" s="280"/>
+      <c r="F30" s="287"/>
+      <c r="G30" s="287"/>
       <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:46">
@@ -32407,11 +32600,11 @@
       <c r="C32" s="8">
         <v>0.76834862385321101</v>
       </c>
-      <c r="E32" s="280" t="s">
+      <c r="E32" s="287" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="280"/>
-      <c r="G32" s="280"/>
+      <c r="F32" s="287"/>
+      <c r="G32" s="287"/>
       <c r="L32" s="23"/>
     </row>
     <row r="33" spans="1:34">
@@ -32454,16 +32647,16 @@
       <c r="L35" s="23"/>
     </row>
     <row r="36" spans="1:34">
-      <c r="A36" s="280" t="s">
+      <c r="A36" s="287" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="280"/>
-      <c r="C36" s="280"/>
-      <c r="E36" s="306" t="s">
+      <c r="B36" s="287"/>
+      <c r="C36" s="287"/>
+      <c r="E36" s="313" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="306"/>
-      <c r="G36" s="306"/>
+      <c r="F36" s="313"/>
+      <c r="G36" s="313"/>
     </row>
     <row r="37" spans="1:34">
       <c r="A37" s="90" t="s">
@@ -32747,13 +32940,13 @@
       <c r="AH49" s="105"/>
     </row>
     <row r="50" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A50" s="290" t="s">
+      <c r="A50" s="297" t="s">
         <v>129</v>
       </c>
-      <c r="B50" s="277" t="s">
+      <c r="B50" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="291">
+      <c r="C50" s="298">
         <v>7.2400155000000002</v>
       </c>
       <c r="D50" s="106" t="s">
@@ -32823,9 +33016,9 @@
       <c r="AH50" s="113"/>
     </row>
     <row r="51" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A51" s="290"/>
-      <c r="B51" s="290"/>
-      <c r="C51" s="291"/>
+      <c r="A51" s="297"/>
+      <c r="B51" s="297"/>
+      <c r="C51" s="298"/>
       <c r="D51" s="106" t="s">
         <v>123</v>
       </c>
@@ -32893,13 +33086,13 @@
       <c r="AH51" s="114"/>
     </row>
     <row r="52" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A52" s="278" t="s">
+      <c r="A52" s="285" t="s">
         <v>133</v>
       </c>
-      <c r="B52" s="277" t="s">
+      <c r="B52" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="289">
+      <c r="C52" s="296">
         <v>0</v>
       </c>
       <c r="D52" s="106" t="s">
@@ -32939,9 +33132,9 @@
       <c r="AH52" s="108"/>
     </row>
     <row r="53" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A53" s="278"/>
-      <c r="B53" s="277"/>
-      <c r="C53" s="289"/>
+      <c r="A53" s="285"/>
+      <c r="B53" s="284"/>
+      <c r="C53" s="296"/>
       <c r="D53" s="106" t="s">
         <v>123</v>
       </c>
@@ -32979,13 +33172,13 @@
       <c r="AH53" s="117"/>
     </row>
     <row r="54" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A54" s="277" t="s">
+      <c r="A54" s="284" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="304">
-        <v>0</v>
-      </c>
-      <c r="C54" s="305">
+      <c r="B54" s="311">
+        <v>0</v>
+      </c>
+      <c r="C54" s="312">
         <v>0</v>
       </c>
       <c r="D54" s="106" t="s">
@@ -33055,9 +33248,9 @@
       <c r="AH54" s="108"/>
     </row>
     <row r="55" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A55" s="277"/>
-      <c r="B55" s="304"/>
-      <c r="C55" s="304"/>
+      <c r="A55" s="284"/>
+      <c r="B55" s="311"/>
+      <c r="C55" s="311"/>
       <c r="D55" s="106" t="s">
         <v>123</v>
       </c>
@@ -33163,13 +33356,13 @@
       <c r="AH56" s="105"/>
     </row>
     <row r="57" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A57" s="277" t="s">
+      <c r="A57" s="284" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="277" t="s">
+      <c r="B57" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="276">
+      <c r="C57" s="283">
         <v>5.3000049000000002</v>
       </c>
       <c r="D57" s="106" t="s">
@@ -33237,9 +33430,9 @@
       <c r="AH57" s="108"/>
     </row>
     <row r="58" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A58" s="277"/>
-      <c r="B58" s="277"/>
-      <c r="C58" s="276"/>
+      <c r="A58" s="284"/>
+      <c r="B58" s="284"/>
+      <c r="C58" s="283"/>
       <c r="D58" s="106" t="s">
         <v>123</v>
       </c>
@@ -33305,13 +33498,13 @@
       <c r="AH58" s="111"/>
     </row>
     <row r="59" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A59" s="278" t="s">
+      <c r="A59" s="285" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="277" t="s">
+      <c r="B59" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="276">
+      <c r="C59" s="283">
         <v>0</v>
       </c>
       <c r="D59" s="106" t="s">
@@ -33351,9 +33544,9 @@
       <c r="AH59" s="108"/>
     </row>
     <row r="60" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A60" s="278"/>
-      <c r="B60" s="277"/>
-      <c r="C60" s="276"/>
+      <c r="A60" s="285"/>
+      <c r="B60" s="284"/>
+      <c r="C60" s="283"/>
       <c r="D60" s="106" t="s">
         <v>123</v>
       </c>
@@ -33391,13 +33584,13 @@
       <c r="AH60" s="111"/>
     </row>
     <row r="61" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A61" s="277" t="s">
+      <c r="A61" s="284" t="s">
         <v>131</v>
       </c>
-      <c r="B61" s="304">
-        <v>0</v>
-      </c>
-      <c r="C61" s="305">
+      <c r="B61" s="311">
+        <v>0</v>
+      </c>
+      <c r="C61" s="312">
         <v>5.3000049000000002</v>
       </c>
       <c r="D61" s="106" t="s">
@@ -33465,9 +33658,9 @@
       <c r="AH61" s="108"/>
     </row>
     <row r="62" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A62" s="277"/>
-      <c r="B62" s="304"/>
-      <c r="C62" s="304"/>
+      <c r="A62" s="284"/>
+      <c r="B62" s="311"/>
+      <c r="C62" s="311"/>
       <c r="D62" s="106" t="s">
         <v>123</v>
       </c>
@@ -33571,13 +33764,13 @@
       <c r="AH63" s="105"/>
     </row>
     <row r="64" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A64" s="277" t="s">
+      <c r="A64" s="284" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="278" t="s">
+      <c r="B64" s="285" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="276">
+      <c r="C64" s="283">
         <v>3.8630089000000001</v>
       </c>
       <c r="D64" s="106" t="s">
@@ -33617,9 +33810,9 @@
       <c r="AH64" s="108"/>
     </row>
     <row r="65" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A65" s="277"/>
-      <c r="B65" s="278"/>
-      <c r="C65" s="276"/>
+      <c r="A65" s="284"/>
+      <c r="B65" s="285"/>
+      <c r="C65" s="283"/>
       <c r="D65" s="106" t="s">
         <v>123</v>
       </c>
@@ -33695,13 +33888,13 @@
       <c r="AH66" s="105"/>
     </row>
     <row r="67" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A67" s="277" t="s">
+      <c r="A67" s="284" t="s">
         <v>128</v>
       </c>
-      <c r="B67" s="277" t="s">
+      <c r="B67" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="276">
+      <c r="C67" s="283">
         <v>14500</v>
       </c>
       <c r="D67" s="106" t="s">
@@ -33799,9 +33992,9 @@
       </c>
     </row>
     <row r="68" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A68" s="277"/>
-      <c r="B68" s="277"/>
-      <c r="C68" s="276"/>
+      <c r="A68" s="284"/>
+      <c r="B68" s="284"/>
+      <c r="C68" s="283"/>
       <c r="D68" s="106" t="s">
         <v>123</v>
       </c>
@@ -33911,11 +34104,11 @@
       </c>
     </row>
     <row r="72" spans="1:34">
-      <c r="A72" s="282" t="s">
+      <c r="A72" s="289" t="s">
         <v>113</v>
       </c>
-      <c r="B72" s="283"/>
-      <c r="C72" s="284"/>
+      <c r="B72" s="290"/>
+      <c r="C72" s="291"/>
     </row>
     <row r="73" spans="1:34">
       <c r="A73" s="91" t="s">
@@ -33961,16 +34154,16 @@
       <c r="G77" s="72"/>
     </row>
     <row r="78" spans="1:34">
-      <c r="A78" s="285" t="s">
+      <c r="A78" s="292" t="s">
         <v>189</v>
       </c>
-      <c r="B78" s="286"/>
-      <c r="C78" s="287"/>
-      <c r="E78" s="307" t="s">
+      <c r="B78" s="293"/>
+      <c r="C78" s="294"/>
+      <c r="E78" s="314" t="s">
         <v>216</v>
       </c>
-      <c r="F78" s="308"/>
-      <c r="G78" s="309"/>
+      <c r="F78" s="315"/>
+      <c r="G78" s="316"/>
     </row>
     <row r="79" spans="1:34">
       <c r="A79" s="173" t="s">
@@ -34225,10 +34418,10 @@
       </c>
     </row>
     <row r="99" spans="1:26">
-      <c r="A99" s="292" t="s">
+      <c r="A99" s="299" t="s">
         <v>25</v>
       </c>
-      <c r="B99" s="294"/>
+      <c r="B99" s="301"/>
       <c r="C99" s="183">
         <v>1995</v>
       </c>
@@ -40111,12 +40304,12 @@
       </c>
     </row>
     <row r="202" spans="1:16">
-      <c r="A202" s="271" t="s">
+      <c r="A202" s="270" t="s">
         <v>343</v>
       </c>
-      <c r="B202" s="270"/>
-      <c r="C202" s="270"/>
-      <c r="D202" s="270"/>
+      <c r="B202" s="269"/>
+      <c r="C202" s="269"/>
+      <c r="D202" s="269"/>
     </row>
     <row r="203" spans="1:16">
       <c r="A203" s="263" t="s">
@@ -40179,16 +40372,74 @@
       <c r="D207" s="39"/>
     </row>
     <row r="208" spans="1:16">
-      <c r="A208" s="269" t="s">
+      <c r="A208" s="268" t="s">
         <v>337</v>
       </c>
-      <c r="B208" s="268" t="s">
+      <c r="B208" s="267" t="s">
         <v>336</v>
       </c>
-      <c r="C208" s="267">
+      <c r="C208" s="266">
         <v>0</v>
       </c>
       <c r="D208" s="39"/>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="274" t="s">
+        <v>351</v>
+      </c>
+      <c r="B209" s="275"/>
+      <c r="C209" s="275"/>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="276" t="s">
+        <v>346</v>
+      </c>
+      <c r="B210" s="277" t="s">
+        <v>60</v>
+      </c>
+      <c r="C210" s="278">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="263" t="s">
+        <v>352</v>
+      </c>
+      <c r="B211" s="220" t="s">
+        <v>353</v>
+      </c>
+      <c r="C211" s="262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="263" t="s">
+        <v>354</v>
+      </c>
+      <c r="B212" s="279" t="s">
+        <v>334</v>
+      </c>
+      <c r="C212" s="262">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="270" t="s">
+        <v>348</v>
+      </c>
+      <c r="B213" s="269"/>
+      <c r="C213" s="269"/>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="263" t="s">
+        <v>350</v>
+      </c>
+      <c r="B214" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="C214" s="262">
+        <v>4.5999999999999999E-3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="39">
@@ -40233,7 +40484,7 @@
     <mergeCell ref="C52:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="B182:P182">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40405,13 +40656,13 @@
       <c r="AM5" s="105"/>
     </row>
     <row r="6" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A6" s="277" t="s">
+      <c r="A6" s="284" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="277" t="s">
+      <c r="B6" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="276">
+      <c r="C6" s="283">
         <v>12500</v>
       </c>
       <c r="D6" s="106" t="s">
@@ -40506,9 +40757,9 @@
       <c r="AM6" s="121"/>
     </row>
     <row r="7" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A7" s="277"/>
-      <c r="B7" s="277"/>
-      <c r="C7" s="276"/>
+      <c r="A7" s="284"/>
+      <c r="B7" s="284"/>
+      <c r="C7" s="283"/>
       <c r="D7" s="106" t="s">
         <v>123</v>
       </c>
@@ -40601,13 +40852,13 @@
       <c r="AM7" s="122"/>
     </row>
     <row r="8" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A8" s="290" t="s">
+      <c r="A8" s="297" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="277" t="s">
+      <c r="B8" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="291">
+      <c r="C8" s="298">
         <v>14500</v>
       </c>
       <c r="D8" s="106" t="s">
@@ -40710,9 +40961,9 @@
       <c r="AM8" s="124"/>
     </row>
     <row r="9" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A9" s="290"/>
-      <c r="B9" s="290"/>
-      <c r="C9" s="291"/>
+      <c r="A9" s="297"/>
+      <c r="B9" s="297"/>
+      <c r="C9" s="298"/>
       <c r="D9" s="106" t="s">
         <v>123</v>
       </c>
@@ -40813,13 +41064,13 @@
       <c r="AM9" s="122"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A10" s="278" t="s">
+      <c r="A10" s="285" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="277" t="s">
+      <c r="B10" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="289">
+      <c r="C10" s="296">
         <v>16700</v>
       </c>
       <c r="D10" s="106" t="s">
@@ -40932,9 +41183,9 @@
       </c>
     </row>
     <row r="11" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A11" s="278"/>
-      <c r="B11" s="277"/>
-      <c r="C11" s="289"/>
+      <c r="A11" s="285"/>
+      <c r="B11" s="284"/>
+      <c r="C11" s="296"/>
       <c r="D11" s="106" t="s">
         <v>123</v>
       </c>
@@ -41045,13 +41296,13 @@
       </c>
     </row>
     <row r="12" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A12" s="278" t="s">
+      <c r="A12" s="285" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="277" t="s">
+      <c r="B12" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="289">
+      <c r="C12" s="296">
         <v>10500</v>
       </c>
       <c r="D12" s="106" t="s">
@@ -41138,9 +41389,9 @@
       <c r="AM12" s="121"/>
     </row>
     <row r="13" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A13" s="278"/>
-      <c r="B13" s="277"/>
-      <c r="C13" s="289"/>
+      <c r="A13" s="285"/>
+      <c r="B13" s="284"/>
+      <c r="C13" s="296"/>
       <c r="D13" s="106" t="s">
         <v>123</v>
       </c>
@@ -41225,13 +41476,13 @@
       <c r="AM13" s="127"/>
     </row>
     <row r="14" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A14" s="278" t="s">
+      <c r="A14" s="285" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="277" t="s">
+      <c r="B14" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="289">
+      <c r="C14" s="296">
         <v>22000</v>
       </c>
       <c r="D14" s="106" t="s">
@@ -41320,9 +41571,9 @@
       <c r="AM14" s="121"/>
     </row>
     <row r="15" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A15" s="278"/>
-      <c r="B15" s="277"/>
-      <c r="C15" s="289"/>
+      <c r="A15" s="285"/>
+      <c r="B15" s="284"/>
+      <c r="C15" s="296"/>
       <c r="D15" s="106" t="s">
         <v>123</v>
       </c>
@@ -41409,13 +41660,13 @@
       <c r="AM15" s="127"/>
     </row>
     <row r="16" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A16" s="278" t="s">
+      <c r="A16" s="285" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="277" t="s">
+      <c r="B16" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="289">
+      <c r="C16" s="296">
         <v>6000</v>
       </c>
       <c r="D16" s="106" t="s">
@@ -41484,9 +41735,9 @@
       <c r="AM16" s="121"/>
     </row>
     <row r="17" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A17" s="278"/>
-      <c r="B17" s="277"/>
-      <c r="C17" s="289"/>
+      <c r="A17" s="285"/>
+      <c r="B17" s="284"/>
+      <c r="C17" s="296"/>
       <c r="D17" s="106" t="s">
         <v>123</v>
       </c>
@@ -41553,13 +41804,13 @@
       <c r="AM17" s="127"/>
     </row>
     <row r="18" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A18" s="277" t="s">
+      <c r="A18" s="284" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="275">
+      <c r="B18" s="282">
         <v>0.5</v>
       </c>
-      <c r="C18" s="276">
+      <c r="C18" s="283">
         <v>16800</v>
       </c>
       <c r="D18" s="106" t="s">
@@ -41660,9 +41911,9 @@
       <c r="AM18" s="121"/>
     </row>
     <row r="19" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A19" s="277"/>
-      <c r="B19" s="275"/>
-      <c r="C19" s="275"/>
+      <c r="A19" s="284"/>
+      <c r="B19" s="282"/>
+      <c r="C19" s="282"/>
       <c r="D19" s="106" t="s">
         <v>123</v>
       </c>
@@ -41804,13 +42055,13 @@
       <c r="AM20" s="105"/>
     </row>
     <row r="21" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A21" s="277" t="s">
+      <c r="A21" s="284" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="277" t="s">
+      <c r="B21" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="276">
+      <c r="C21" s="283">
         <v>11000</v>
       </c>
       <c r="D21" s="106" t="s">
@@ -41875,9 +42126,9 @@
       <c r="AM21" s="121"/>
     </row>
     <row r="22" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A22" s="277"/>
-      <c r="B22" s="277"/>
-      <c r="C22" s="276"/>
+      <c r="A22" s="284"/>
+      <c r="B22" s="284"/>
+      <c r="C22" s="283"/>
       <c r="D22" s="106" t="s">
         <v>123</v>
       </c>
@@ -41940,13 +42191,13 @@
       <c r="AM22" s="122"/>
     </row>
     <row r="23" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A23" s="277" t="s">
+      <c r="A23" s="284" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="277" t="s">
+      <c r="B23" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="276">
+      <c r="C23" s="283">
         <v>22500</v>
       </c>
       <c r="D23" s="106" t="s">
@@ -42021,9 +42272,9 @@
       <c r="AM23" s="121"/>
     </row>
     <row r="24" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A24" s="277"/>
-      <c r="B24" s="277"/>
-      <c r="C24" s="276"/>
+      <c r="A24" s="284"/>
+      <c r="B24" s="284"/>
+      <c r="C24" s="283"/>
       <c r="D24" s="106" t="s">
         <v>123</v>
       </c>
@@ -42096,13 +42347,13 @@
       <c r="AM24" s="122"/>
     </row>
     <row r="25" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A25" s="277" t="s">
+      <c r="A25" s="284" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="277" t="s">
+      <c r="B25" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="276">
+      <c r="C25" s="283">
         <v>13200</v>
       </c>
       <c r="D25" s="106" t="s">
@@ -42169,9 +42420,9 @@
       <c r="AM25" s="121"/>
     </row>
     <row r="26" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A26" s="277"/>
-      <c r="B26" s="277"/>
-      <c r="C26" s="276"/>
+      <c r="A26" s="284"/>
+      <c r="B26" s="284"/>
+      <c r="C26" s="283"/>
       <c r="D26" s="106" t="s">
         <v>123</v>
       </c>
@@ -42236,13 +42487,13 @@
       <c r="AM26" s="122"/>
     </row>
     <row r="27" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A27" s="278" t="s">
+      <c r="A27" s="285" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="277" t="s">
+      <c r="B27" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="276">
+      <c r="C27" s="283">
         <v>14500</v>
       </c>
       <c r="D27" s="106" t="s">
@@ -42345,9 +42596,9 @@
       <c r="AM27" s="121"/>
     </row>
     <row r="28" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A28" s="278"/>
-      <c r="B28" s="277"/>
-      <c r="C28" s="276"/>
+      <c r="A28" s="285"/>
+      <c r="B28" s="284"/>
+      <c r="C28" s="283"/>
       <c r="D28" s="106" t="s">
         <v>123</v>
       </c>
@@ -42448,13 +42699,13 @@
       <c r="AM28" s="122"/>
     </row>
     <row r="29" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A29" s="278" t="s">
+      <c r="A29" s="285" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="277" t="s">
+      <c r="B29" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="276">
+      <c r="C29" s="283">
         <v>24000</v>
       </c>
       <c r="D29" s="106" t="s">
@@ -42531,9 +42782,9 @@
       <c r="AM29" s="121"/>
     </row>
     <row r="30" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A30" s="278"/>
-      <c r="B30" s="277"/>
-      <c r="C30" s="276"/>
+      <c r="A30" s="285"/>
+      <c r="B30" s="284"/>
+      <c r="C30" s="283"/>
       <c r="D30" s="106" t="s">
         <v>123</v>
       </c>
@@ -42608,13 +42859,13 @@
       <c r="AM30" s="122"/>
     </row>
     <row r="31" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A31" s="278" t="s">
+      <c r="A31" s="285" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="277" t="s">
+      <c r="B31" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="276">
+      <c r="C31" s="283">
         <v>2800</v>
       </c>
       <c r="D31" s="106" t="s">
@@ -42673,9 +42924,9 @@
       <c r="AM31" s="121"/>
     </row>
     <row r="32" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A32" s="278"/>
-      <c r="B32" s="277"/>
-      <c r="C32" s="276"/>
+      <c r="A32" s="285"/>
+      <c r="B32" s="284"/>
+      <c r="C32" s="283"/>
       <c r="D32" s="106" t="s">
         <v>123</v>
       </c>
@@ -42732,13 +42983,13 @@
       <c r="AM32" s="122"/>
     </row>
     <row r="33" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A33" s="277" t="s">
+      <c r="A33" s="284" t="s">
         <v>148</v>
       </c>
-      <c r="B33" s="275">
+      <c r="B33" s="282">
         <v>0.25</v>
       </c>
-      <c r="C33" s="276">
+      <c r="C33" s="283">
         <v>13000</v>
       </c>
       <c r="D33" s="106" t="s">
@@ -42835,9 +43086,9 @@
       <c r="AM33" s="121"/>
     </row>
     <row r="34" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A34" s="277"/>
-      <c r="B34" s="275"/>
-      <c r="C34" s="275"/>
+      <c r="A34" s="284"/>
+      <c r="B34" s="282"/>
+      <c r="C34" s="282"/>
       <c r="D34" s="106" t="s">
         <v>123</v>
       </c>
@@ -42932,14 +43183,14 @@
       <c r="AM34" s="122"/>
     </row>
     <row r="35" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A35" s="277" t="s">
+      <c r="A35" s="284" t="s">
         <v>149</v>
       </c>
-      <c r="B35" s="310">
+      <c r="B35" s="317">
         <f>40/150</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="C35" s="276">
+      <c r="C35" s="283">
         <v>20000</v>
       </c>
       <c r="D35" s="106" t="s">
@@ -43024,9 +43275,9 @@
       <c r="AM35" s="121"/>
     </row>
     <row r="36" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A36" s="277"/>
-      <c r="B36" s="310"/>
-      <c r="C36" s="276"/>
+      <c r="A36" s="284"/>
+      <c r="B36" s="317"/>
+      <c r="C36" s="283"/>
       <c r="D36" s="106" t="s">
         <v>123</v>
       </c>
@@ -43152,13 +43403,13 @@
       <c r="AM37" s="105"/>
     </row>
     <row r="38" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A38" s="278" t="s">
+      <c r="A38" s="285" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="278" t="s">
+      <c r="B38" s="285" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="289">
+      <c r="C38" s="296">
         <v>27800</v>
       </c>
       <c r="D38" s="106" t="s">
@@ -43231,9 +43482,9 @@
       <c r="AM38" s="121"/>
     </row>
     <row r="39" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A39" s="278"/>
-      <c r="B39" s="278"/>
-      <c r="C39" s="289"/>
+      <c r="A39" s="285"/>
+      <c r="B39" s="285"/>
+      <c r="C39" s="296"/>
       <c r="D39" s="106" t="s">
         <v>123</v>
       </c>
@@ -43304,13 +43555,13 @@
       <c r="AM39" s="127"/>
     </row>
     <row r="40" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A40" s="277" t="s">
+      <c r="A40" s="284" t="s">
         <v>151</v>
       </c>
-      <c r="B40" s="278" t="s">
+      <c r="B40" s="285" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="276">
+      <c r="C40" s="283">
         <v>14500</v>
       </c>
       <c r="D40" s="106" t="s">
@@ -43413,9 +43664,9 @@
       <c r="AM40" s="121"/>
     </row>
     <row r="41" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A41" s="277"/>
-      <c r="B41" s="278"/>
-      <c r="C41" s="276"/>
+      <c r="A41" s="284"/>
+      <c r="B41" s="285"/>
+      <c r="C41" s="283"/>
       <c r="D41" s="106" t="s">
         <v>123</v>
       </c>
@@ -43516,13 +43767,13 @@
       <c r="AM41" s="122"/>
     </row>
     <row r="42" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A42" s="277" t="s">
+      <c r="A42" s="284" t="s">
         <v>152</v>
       </c>
-      <c r="B42" s="278" t="s">
+      <c r="B42" s="285" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="276">
+      <c r="C42" s="283">
         <v>22500</v>
       </c>
       <c r="D42" s="106" t="s">
@@ -43597,9 +43848,9 @@
       <c r="AM42" s="121"/>
     </row>
     <row r="43" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A43" s="277"/>
-      <c r="B43" s="278"/>
-      <c r="C43" s="276"/>
+      <c r="A43" s="284"/>
+      <c r="B43" s="285"/>
+      <c r="C43" s="283"/>
       <c r="D43" s="106" t="s">
         <v>123</v>
       </c>
@@ -43672,13 +43923,13 @@
       <c r="AM43" s="122"/>
     </row>
     <row r="44" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A44" s="277" t="s">
+      <c r="A44" s="284" t="s">
         <v>153</v>
       </c>
-      <c r="B44" s="278" t="s">
+      <c r="B44" s="285" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="276">
+      <c r="C44" s="283">
         <v>31500</v>
       </c>
       <c r="D44" s="106" t="s">
@@ -43765,9 +44016,9 @@
       <c r="AM44" s="121"/>
     </row>
     <row r="45" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A45" s="277"/>
-      <c r="B45" s="278"/>
-      <c r="C45" s="276"/>
+      <c r="A45" s="284"/>
+      <c r="B45" s="285"/>
+      <c r="C45" s="283"/>
       <c r="D45" s="106" t="s">
         <v>123</v>
       </c>
@@ -43895,13 +44146,13 @@
       <c r="AM46" s="105"/>
     </row>
     <row r="47" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A47" s="277" t="s">
+      <c r="A47" s="284" t="s">
         <v>154</v>
       </c>
-      <c r="B47" s="277" t="s">
+      <c r="B47" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="276">
+      <c r="C47" s="283">
         <v>3700</v>
       </c>
       <c r="D47" s="106" t="s">
@@ -43972,9 +44223,9 @@
       <c r="AM47" s="121"/>
     </row>
     <row r="48" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A48" s="277"/>
-      <c r="B48" s="277"/>
-      <c r="C48" s="276"/>
+      <c r="A48" s="284"/>
+      <c r="B48" s="284"/>
+      <c r="C48" s="283"/>
       <c r="D48" s="106" t="s">
         <v>123</v>
       </c>
@@ -44043,13 +44294,13 @@
       <c r="AM48" s="122"/>
     </row>
     <row r="49" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A49" s="277" t="s">
+      <c r="A49" s="284" t="s">
         <v>155</v>
       </c>
-      <c r="B49" s="277" t="s">
+      <c r="B49" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="276">
+      <c r="C49" s="283">
         <v>4000</v>
       </c>
       <c r="D49" s="106" t="s">
@@ -44120,9 +44371,9 @@
       <c r="AM49" s="121"/>
     </row>
     <row r="50" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A50" s="277"/>
-      <c r="B50" s="277"/>
-      <c r="C50" s="276"/>
+      <c r="A50" s="284"/>
+      <c r="B50" s="284"/>
+      <c r="C50" s="283"/>
       <c r="D50" s="106" t="s">
         <v>123</v>
       </c>
@@ -44319,13 +44570,13 @@
       <c r="AC55" s="104"/>
     </row>
     <row r="56" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A56" s="312" t="s">
+      <c r="A56" s="319" t="s">
         <v>158</v>
       </c>
-      <c r="B56" s="277" t="s">
+      <c r="B56" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="276">
+      <c r="C56" s="283">
         <f>+E56</f>
         <v>299.97278596475797</v>
       </c>
@@ -44397,9 +44648,9 @@
       <c r="AM56" s="121"/>
     </row>
     <row r="57" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A57" s="312"/>
-      <c r="B57" s="277"/>
-      <c r="C57" s="276"/>
+      <c r="A57" s="319"/>
+      <c r="B57" s="284"/>
+      <c r="C57" s="283"/>
       <c r="D57" s="106" t="s">
         <v>123</v>
       </c>
@@ -44468,13 +44719,13 @@
       <c r="AM57" s="122"/>
     </row>
     <row r="58" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A58" s="312" t="s">
+      <c r="A58" s="319" t="s">
         <v>159</v>
       </c>
-      <c r="B58" s="277" t="s">
+      <c r="B58" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="276">
+      <c r="C58" s="283">
         <f>+I58</f>
         <v>304.471539948898</v>
       </c>
@@ -44550,9 +44801,9 @@
       <c r="AM58" s="124"/>
     </row>
     <row r="59" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A59" s="312"/>
-      <c r="B59" s="277"/>
-      <c r="C59" s="276"/>
+      <c r="A59" s="319"/>
+      <c r="B59" s="284"/>
+      <c r="C59" s="283"/>
       <c r="D59" s="106" t="s">
         <v>123</v>
       </c>
@@ -44625,13 +44876,13 @@
       <c r="AM59" s="122"/>
     </row>
     <row r="60" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A60" s="312" t="s">
+      <c r="A60" s="319" t="s">
         <v>160</v>
       </c>
-      <c r="B60" s="277" t="s">
+      <c r="B60" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="276">
+      <c r="C60" s="283">
         <f>+K60</f>
         <v>411.48014529125697</v>
       </c>
@@ -44705,9 +44956,9 @@
       <c r="AM60" s="125"/>
     </row>
     <row r="61" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A61" s="312"/>
-      <c r="B61" s="277"/>
-      <c r="C61" s="276"/>
+      <c r="A61" s="319"/>
+      <c r="B61" s="284"/>
+      <c r="C61" s="283"/>
       <c r="D61" s="106" t="s">
         <v>123</v>
       </c>
@@ -44778,13 +45029,13 @@
       <c r="AM61" s="126"/>
     </row>
     <row r="62" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A62" s="312" t="s">
+      <c r="A62" s="319" t="s">
         <v>161</v>
       </c>
-      <c r="B62" s="277" t="s">
+      <c r="B62" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="276">
+      <c r="C62" s="283">
         <f>+E62</f>
         <v>14.1809996187</v>
       </c>
@@ -44862,9 +45113,9 @@
       <c r="AM62" s="121"/>
     </row>
     <row r="63" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A63" s="312"/>
-      <c r="B63" s="277"/>
-      <c r="C63" s="276"/>
+      <c r="A63" s="319"/>
+      <c r="B63" s="284"/>
+      <c r="C63" s="283"/>
       <c r="D63" s="106" t="s">
         <v>123</v>
       </c>
@@ -44939,13 +45190,13 @@
       <c r="AM63" s="127"/>
     </row>
     <row r="64" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A64" s="312" t="s">
+      <c r="A64" s="319" t="s">
         <v>162</v>
       </c>
-      <c r="B64" s="277" t="s">
+      <c r="B64" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="276">
+      <c r="C64" s="283">
         <f>+E64</f>
         <v>77.5139928551</v>
       </c>
@@ -45020,9 +45271,9 @@
       <c r="AM64" s="121"/>
     </row>
     <row r="65" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A65" s="312"/>
-      <c r="B65" s="277"/>
-      <c r="C65" s="276"/>
+      <c r="A65" s="319"/>
+      <c r="B65" s="284"/>
+      <c r="C65" s="283"/>
       <c r="D65" s="138" t="s">
         <v>123</v>
       </c>
@@ -45094,13 +45345,13 @@
       <c r="AM65" s="122"/>
     </row>
     <row r="66" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A66" s="312" t="s">
+      <c r="A66" s="319" t="s">
         <v>163</v>
       </c>
-      <c r="B66" s="277" t="s">
+      <c r="B66" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="276">
+      <c r="C66" s="283">
         <f>+E66</f>
         <v>103.654610475</v>
       </c>
@@ -45174,9 +45425,9 @@
       <c r="AM66" s="124"/>
     </row>
     <row r="67" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A67" s="312"/>
-      <c r="B67" s="277"/>
-      <c r="C67" s="276"/>
+      <c r="A67" s="319"/>
+      <c r="B67" s="284"/>
+      <c r="C67" s="283"/>
       <c r="D67" s="106" t="s">
         <v>123</v>
       </c>
@@ -45247,14 +45498,14 @@
       <c r="AM67" s="127"/>
     </row>
     <row r="68" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A68" s="311" t="s">
+      <c r="A68" s="318" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="275">
+      <c r="B68" s="282">
         <f>+E68</f>
         <v>0</v>
       </c>
-      <c r="C68" s="276">
+      <c r="C68" s="283">
         <v>0</v>
       </c>
       <c r="D68" s="106" t="s">
@@ -45297,9 +45548,9 @@
       <c r="AM68" s="121"/>
     </row>
     <row r="69" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A69" s="311"/>
-      <c r="B69" s="275"/>
-      <c r="C69" s="276"/>
+      <c r="A69" s="318"/>
+      <c r="B69" s="282"/>
+      <c r="C69" s="283"/>
       <c r="D69" s="106" t="s">
         <v>123</v>
       </c>
@@ -45373,13 +45624,13 @@
       <c r="AC70" s="104"/>
     </row>
     <row r="71" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A71" s="312" t="s">
+      <c r="A71" s="319" t="s">
         <v>164</v>
       </c>
-      <c r="B71" s="277" t="s">
+      <c r="B71" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="276">
+      <c r="C71" s="283">
         <f>+E71</f>
         <v>542.01797255752001</v>
       </c>
@@ -45457,9 +45708,9 @@
       <c r="AM71" s="121"/>
     </row>
     <row r="72" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A72" s="312"/>
-      <c r="B72" s="277"/>
-      <c r="C72" s="276"/>
+      <c r="A72" s="319"/>
+      <c r="B72" s="284"/>
+      <c r="C72" s="283"/>
       <c r="D72" s="106" t="s">
         <v>123</v>
       </c>
@@ -45534,13 +45785,13 @@
       <c r="AM72" s="122"/>
     </row>
     <row r="73" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A73" s="312" t="s">
+      <c r="A73" s="319" t="s">
         <v>165</v>
       </c>
-      <c r="B73" s="277" t="s">
+      <c r="B73" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="276">
+      <c r="C73" s="283">
         <f>+G73</f>
         <v>538.005973433431</v>
       </c>
@@ -45619,9 +45870,9 @@
       <c r="AM73" s="121"/>
     </row>
     <row r="74" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A74" s="312"/>
-      <c r="B74" s="277"/>
-      <c r="C74" s="276"/>
+      <c r="A74" s="319"/>
+      <c r="B74" s="284"/>
+      <c r="C74" s="283"/>
       <c r="D74" s="106" t="s">
         <v>123</v>
       </c>
@@ -45697,13 +45948,13 @@
       <c r="AM74" s="122"/>
     </row>
     <row r="75" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A75" s="312" t="s">
+      <c r="A75" s="319" t="s">
         <v>166</v>
       </c>
-      <c r="B75" s="277" t="s">
+      <c r="B75" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="276">
+      <c r="C75" s="283">
         <f>+H75</f>
         <v>540.81199952922702</v>
       </c>
@@ -45782,9 +46033,9 @@
       <c r="AM75" s="121"/>
     </row>
     <row r="76" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A76" s="312"/>
-      <c r="B76" s="277"/>
-      <c r="C76" s="276"/>
+      <c r="A76" s="319"/>
+      <c r="B76" s="284"/>
+      <c r="C76" s="283"/>
       <c r="D76" s="106" t="s">
         <v>123</v>
       </c>
@@ -45860,13 +46111,13 @@
       <c r="AM76" s="122"/>
     </row>
     <row r="77" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A77" s="312" t="s">
+      <c r="A77" s="319" t="s">
         <v>167</v>
       </c>
-      <c r="B77" s="277" t="s">
+      <c r="B77" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="276">
+      <c r="C77" s="283">
         <f>+E77</f>
         <v>70.703999727247606</v>
       </c>
@@ -45948,9 +46199,9 @@
       <c r="AM77" s="121"/>
     </row>
     <row r="78" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A78" s="312"/>
-      <c r="B78" s="277"/>
-      <c r="C78" s="276"/>
+      <c r="A78" s="319"/>
+      <c r="B78" s="284"/>
+      <c r="C78" s="283"/>
       <c r="D78" s="106" t="s">
         <v>123</v>
       </c>
@@ -46029,13 +46280,13 @@
       <c r="AM78" s="122"/>
     </row>
     <row r="79" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A79" s="312" t="s">
+      <c r="A79" s="319" t="s">
         <v>168</v>
       </c>
-      <c r="B79" s="277" t="s">
+      <c r="B79" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="276">
+      <c r="C79" s="283">
         <f>+E79</f>
         <v>487.78598291406001</v>
       </c>
@@ -46119,9 +46370,9 @@
       <c r="AM79" s="121"/>
     </row>
     <row r="80" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A80" s="312"/>
-      <c r="B80" s="277"/>
-      <c r="C80" s="276"/>
+      <c r="A80" s="319"/>
+      <c r="B80" s="284"/>
+      <c r="C80" s="283"/>
       <c r="D80" s="106" t="s">
         <v>123</v>
       </c>
@@ -46202,13 +46453,13 @@
       <c r="AM80" s="122"/>
     </row>
     <row r="81" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A81" s="312" t="s">
+      <c r="A81" s="319" t="s">
         <v>169</v>
       </c>
-      <c r="B81" s="277" t="s">
+      <c r="B81" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="276">
+      <c r="C81" s="283">
         <f>+E81</f>
         <v>881.48595333719004</v>
       </c>
@@ -46286,9 +46537,9 @@
       <c r="AM81" s="121"/>
     </row>
     <row r="82" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A82" s="312"/>
-      <c r="B82" s="277"/>
-      <c r="C82" s="276"/>
+      <c r="A82" s="319"/>
+      <c r="B82" s="284"/>
+      <c r="C82" s="283"/>
       <c r="D82" s="106" t="s">
         <v>123</v>
       </c>
@@ -46363,14 +46614,14 @@
       <c r="AM82" s="122"/>
     </row>
     <row r="83" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A83" s="311" t="s">
+      <c r="A83" s="318" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="275">
+      <c r="B83" s="282">
         <f>+E83</f>
         <v>0</v>
       </c>
-      <c r="C83" s="276">
+      <c r="C83" s="283">
         <v>0</v>
       </c>
       <c r="D83" s="106" t="s">
@@ -46413,9 +46664,9 @@
       <c r="AM83" s="121"/>
     </row>
     <row r="84" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A84" s="311"/>
-      <c r="B84" s="275"/>
-      <c r="C84" s="275"/>
+      <c r="A84" s="318"/>
+      <c r="B84" s="282"/>
+      <c r="C84" s="282"/>
       <c r="D84" s="106" t="s">
         <v>123</v>
       </c>
@@ -46456,14 +46707,14 @@
       <c r="AM84" s="122"/>
     </row>
     <row r="85" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A85" s="311" t="s">
+      <c r="A85" s="318" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="310">
+      <c r="B85" s="317">
         <f>+E85</f>
         <v>0</v>
       </c>
-      <c r="C85" s="276">
+      <c r="C85" s="283">
         <v>0</v>
       </c>
       <c r="D85" s="106" t="s">
@@ -46506,9 +46757,9 @@
       <c r="AM85" s="121"/>
     </row>
     <row r="86" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A86" s="311"/>
-      <c r="B86" s="310"/>
-      <c r="C86" s="276"/>
+      <c r="A86" s="318"/>
+      <c r="B86" s="317"/>
+      <c r="C86" s="283"/>
       <c r="D86" s="106" t="s">
         <v>123</v>
       </c>
@@ -46582,13 +46833,13 @@
       <c r="AC87" s="104"/>
     </row>
     <row r="88" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A88" s="314" t="s">
+      <c r="A88" s="321" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="278" t="s">
+      <c r="B88" s="285" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="289">
+      <c r="C88" s="296">
         <v>0</v>
       </c>
       <c r="D88" s="106" t="s">
@@ -46631,9 +46882,9 @@
       <c r="AM88" s="121"/>
     </row>
     <row r="89" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A89" s="314"/>
-      <c r="B89" s="278"/>
-      <c r="C89" s="289"/>
+      <c r="A89" s="321"/>
+      <c r="B89" s="285"/>
+      <c r="C89" s="296"/>
       <c r="D89" s="106" t="s">
         <v>123</v>
       </c>
@@ -46674,13 +46925,13 @@
       <c r="AM89" s="127"/>
     </row>
     <row r="90" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A90" s="312" t="s">
+      <c r="A90" s="319" t="s">
         <v>170</v>
       </c>
-      <c r="B90" s="278" t="s">
+      <c r="B90" s="285" t="s">
         <v>6</v>
       </c>
-      <c r="C90" s="276">
+      <c r="C90" s="283">
         <f>+E90</f>
         <v>2314.1137144060499</v>
       </c>
@@ -46753,9 +47004,9 @@
       <c r="AM90" s="121"/>
     </row>
     <row r="91" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A91" s="312"/>
-      <c r="B91" s="278"/>
-      <c r="C91" s="276"/>
+      <c r="A91" s="319"/>
+      <c r="B91" s="285"/>
+      <c r="C91" s="283"/>
       <c r="D91" s="106" t="s">
         <v>123</v>
       </c>
@@ -46825,13 +47076,13 @@
       <c r="AM91" s="122"/>
     </row>
     <row r="92" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A92" s="312" t="s">
+      <c r="A92" s="319" t="s">
         <v>171</v>
       </c>
-      <c r="B92" s="278" t="s">
+      <c r="B92" s="285" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="276">
+      <c r="C92" s="283">
         <f>+E92</f>
         <v>2309.2137610162299</v>
       </c>
@@ -46907,9 +47158,9 @@
       <c r="AM92" s="121"/>
     </row>
     <row r="93" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A93" s="312"/>
-      <c r="B93" s="278"/>
-      <c r="C93" s="276"/>
+      <c r="A93" s="319"/>
+      <c r="B93" s="285"/>
+      <c r="C93" s="283"/>
       <c r="D93" s="106" t="s">
         <v>123</v>
       </c>
@@ -46982,13 +47233,13 @@
       <c r="AM93" s="122"/>
     </row>
     <row r="94" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A94" s="312" t="s">
+      <c r="A94" s="319" t="s">
         <v>172</v>
       </c>
-      <c r="B94" s="278" t="s">
+      <c r="B94" s="285" t="s">
         <v>6</v>
       </c>
-      <c r="C94" s="276">
+      <c r="C94" s="283">
         <f>+E94</f>
         <v>2588.6587743893901</v>
       </c>
@@ -47062,9 +47313,9 @@
       <c r="AM94" s="121"/>
     </row>
     <row r="95" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A95" s="312"/>
-      <c r="B95" s="278"/>
-      <c r="C95" s="276"/>
+      <c r="A95" s="319"/>
+      <c r="B95" s="285"/>
+      <c r="C95" s="283"/>
       <c r="D95" s="106" t="s">
         <v>123</v>
       </c>
@@ -47168,11 +47419,11 @@
       <c r="AC96" s="104"/>
     </row>
     <row r="97" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A97" s="311"/>
-      <c r="B97" s="277" t="s">
+      <c r="A97" s="318"/>
+      <c r="B97" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="276">
+      <c r="C97" s="283">
         <f>+E97</f>
         <v>0</v>
       </c>
@@ -47216,9 +47467,9 @@
       <c r="AM97" s="121"/>
     </row>
     <row r="98" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A98" s="311"/>
-      <c r="B98" s="277"/>
-      <c r="C98" s="276"/>
+      <c r="A98" s="318"/>
+      <c r="B98" s="284"/>
+      <c r="C98" s="283"/>
       <c r="D98" s="106" t="s">
         <v>123</v>
       </c>
@@ -47259,11 +47510,11 @@
       <c r="AM98" s="122"/>
     </row>
     <row r="99" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A99" s="311"/>
-      <c r="B99" s="277" t="s">
+      <c r="A99" s="318"/>
+      <c r="B99" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="313">
+      <c r="C99" s="320">
         <f>+E99</f>
         <v>0</v>
       </c>
@@ -47307,9 +47558,9 @@
       <c r="AM99" s="121"/>
     </row>
     <row r="100" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A100" s="311"/>
-      <c r="B100" s="277"/>
-      <c r="C100" s="313"/>
+      <c r="A100" s="318"/>
+      <c r="B100" s="284"/>
+      <c r="C100" s="320"/>
       <c r="D100" s="106" t="s">
         <v>123</v>
       </c>
@@ -47478,13 +47729,13 @@
       <c r="AC106" s="158"/>
     </row>
     <row r="107" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A107" s="315" t="s">
+      <c r="A107" s="322" t="s">
         <v>174</v>
       </c>
-      <c r="B107" s="316" t="s">
+      <c r="B107" s="323" t="s">
         <v>6</v>
       </c>
-      <c r="C107" s="276">
+      <c r="C107" s="283">
         <f>+E107</f>
         <v>5.8600034000000001</v>
       </c>
@@ -47551,9 +47802,9 @@
       <c r="AM107" s="121"/>
     </row>
     <row r="108" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A108" s="315"/>
-      <c r="B108" s="316"/>
-      <c r="C108" s="276"/>
+      <c r="A108" s="322"/>
+      <c r="B108" s="323"/>
+      <c r="C108" s="283"/>
       <c r="D108" s="161" t="s">
         <v>123</v>
       </c>
@@ -47617,13 +47868,13 @@
       <c r="AM108" s="122"/>
     </row>
     <row r="109" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A109" s="315" t="s">
+      <c r="A109" s="322" t="s">
         <v>175</v>
       </c>
-      <c r="B109" s="316" t="s">
+      <c r="B109" s="323" t="s">
         <v>6</v>
       </c>
-      <c r="C109" s="276">
+      <c r="C109" s="283">
         <f>+E109</f>
         <v>5.86</v>
       </c>
@@ -47692,9 +47943,9 @@
       <c r="AM109" s="121"/>
     </row>
     <row r="110" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A110" s="315"/>
-      <c r="B110" s="316"/>
-      <c r="C110" s="276"/>
+      <c r="A110" s="322"/>
+      <c r="B110" s="323"/>
+      <c r="C110" s="283"/>
       <c r="D110" s="161" t="s">
         <v>123</v>
       </c>
@@ -47760,13 +48011,13 @@
       <c r="AM110" s="122"/>
     </row>
     <row r="111" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A111" s="315" t="s">
+      <c r="A111" s="322" t="s">
         <v>176</v>
       </c>
-      <c r="B111" s="316" t="s">
+      <c r="B111" s="323" t="s">
         <v>6</v>
       </c>
-      <c r="C111" s="276">
+      <c r="C111" s="283">
         <f>+E111</f>
         <v>7.2400155000000002</v>
       </c>
@@ -47842,9 +48093,9 @@
       <c r="AM111" s="121"/>
     </row>
     <row r="112" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A112" s="315"/>
-      <c r="B112" s="316"/>
-      <c r="C112" s="276"/>
+      <c r="A112" s="322"/>
+      <c r="B112" s="323"/>
+      <c r="C112" s="283"/>
       <c r="D112" s="161" t="s">
         <v>123</v>
       </c>
@@ -47917,13 +48168,13 @@
       <c r="AM112" s="122"/>
     </row>
     <row r="113" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A113" s="315" t="s">
+      <c r="A113" s="322" t="s">
         <v>177</v>
       </c>
-      <c r="B113" s="316" t="s">
+      <c r="B113" s="323" t="s">
         <v>6</v>
       </c>
-      <c r="C113" s="276">
+      <c r="C113" s="283">
         <f>+E113</f>
         <v>0</v>
       </c>
@@ -47969,9 +48220,9 @@
       <c r="AM113" s="121"/>
     </row>
     <row r="114" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A114" s="315"/>
-      <c r="B114" s="316"/>
-      <c r="C114" s="276"/>
+      <c r="A114" s="322"/>
+      <c r="B114" s="323"/>
+      <c r="C114" s="283"/>
       <c r="D114" s="161" t="s">
         <v>123</v>
       </c>
@@ -48014,13 +48265,13 @@
       <c r="AM114" s="127"/>
     </row>
     <row r="115" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A115" s="315" t="s">
+      <c r="A115" s="322" t="s">
         <v>178</v>
       </c>
-      <c r="B115" s="316" t="s">
+      <c r="B115" s="323" t="s">
         <v>6</v>
       </c>
-      <c r="C115" s="276">
+      <c r="C115" s="283">
         <f>+E115</f>
         <v>0</v>
       </c>
@@ -48066,9 +48317,9 @@
       <c r="AM115" s="121"/>
     </row>
     <row r="116" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A116" s="315"/>
-      <c r="B116" s="316"/>
-      <c r="C116" s="276"/>
+      <c r="A116" s="322"/>
+      <c r="B116" s="323"/>
+      <c r="C116" s="283"/>
       <c r="D116" s="161" t="s">
         <v>123</v>
       </c>
@@ -48111,13 +48362,13 @@
       <c r="AM116" s="122"/>
     </row>
     <row r="117" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A117" s="315" t="s">
+      <c r="A117" s="322" t="s">
         <v>179</v>
       </c>
-      <c r="B117" s="316" t="s">
+      <c r="B117" s="323" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="276">
+      <c r="C117" s="283">
         <f>+E117</f>
         <v>0</v>
       </c>
@@ -48163,9 +48414,9 @@
       <c r="AM117" s="124"/>
     </row>
     <row r="118" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A118" s="315"/>
-      <c r="B118" s="316"/>
-      <c r="C118" s="276"/>
+      <c r="A118" s="322"/>
+      <c r="B118" s="323"/>
+      <c r="C118" s="283"/>
       <c r="D118" s="161" t="s">
         <v>123</v>
       </c>
@@ -48208,14 +48459,14 @@
       <c r="AM118" s="127"/>
     </row>
     <row r="119" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A119" s="311" t="s">
+      <c r="A119" s="318" t="s">
         <v>6</v>
       </c>
-      <c r="B119" s="275">
+      <c r="B119" s="282">
         <f>+E119</f>
         <v>0</v>
       </c>
-      <c r="C119" s="276">
+      <c r="C119" s="283">
         <v>0</v>
       </c>
       <c r="D119" s="161" t="s">
@@ -48258,9 +48509,9 @@
       <c r="AM119" s="121"/>
     </row>
     <row r="120" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A120" s="311"/>
-      <c r="B120" s="275"/>
-      <c r="C120" s="276"/>
+      <c r="A120" s="318"/>
+      <c r="B120" s="282"/>
+      <c r="C120" s="283"/>
       <c r="D120" s="161" t="s">
         <v>123</v>
       </c>
@@ -48334,13 +48585,13 @@
       <c r="AC121" s="158"/>
     </row>
     <row r="122" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A122" s="315" t="s">
+      <c r="A122" s="322" t="s">
         <v>180</v>
       </c>
-      <c r="B122" s="316" t="s">
+      <c r="B122" s="323" t="s">
         <v>6</v>
       </c>
-      <c r="C122" s="276">
+      <c r="C122" s="283">
         <f>+E122</f>
         <v>4.2299990999999997</v>
       </c>
@@ -48410,9 +48661,9 @@
       <c r="AM122" s="121"/>
     </row>
     <row r="123" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A123" s="315"/>
-      <c r="B123" s="316"/>
-      <c r="C123" s="276"/>
+      <c r="A123" s="322"/>
+      <c r="B123" s="323"/>
+      <c r="C123" s="283"/>
       <c r="D123" s="161" t="s">
         <v>123</v>
       </c>
@@ -48479,13 +48730,13 @@
       <c r="AM123" s="122"/>
     </row>
     <row r="124" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A124" s="315" t="s">
+      <c r="A124" s="322" t="s">
         <v>181</v>
       </c>
-      <c r="B124" s="316" t="s">
+      <c r="B124" s="323" t="s">
         <v>6</v>
       </c>
-      <c r="C124" s="276">
+      <c r="C124" s="283">
         <f>+E124</f>
         <v>5.3000118000000001</v>
       </c>
@@ -48557,9 +48808,9 @@
       <c r="AM124" s="121"/>
     </row>
     <row r="125" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A125" s="315"/>
-      <c r="B125" s="316"/>
-      <c r="C125" s="276"/>
+      <c r="A125" s="322"/>
+      <c r="B125" s="323"/>
+      <c r="C125" s="283"/>
       <c r="D125" s="161" t="s">
         <v>123</v>
       </c>
@@ -48628,13 +48879,13 @@
       <c r="AM125" s="122"/>
     </row>
     <row r="126" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A126" s="315" t="s">
+      <c r="A126" s="322" t="s">
         <v>182</v>
       </c>
-      <c r="B126" s="316" t="s">
+      <c r="B126" s="323" t="s">
         <v>6</v>
       </c>
-      <c r="C126" s="276">
+      <c r="C126" s="283">
         <f>+E126</f>
         <v>5.3000049000000002</v>
       </c>
@@ -48708,9 +48959,9 @@
       <c r="AM126" s="121"/>
     </row>
     <row r="127" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A127" s="315"/>
-      <c r="B127" s="316"/>
-      <c r="C127" s="276"/>
+      <c r="A127" s="322"/>
+      <c r="B127" s="323"/>
+      <c r="C127" s="283"/>
       <c r="D127" s="161" t="s">
         <v>123</v>
       </c>
@@ -48781,13 +49032,13 @@
       <c r="AM127" s="122"/>
     </row>
     <row r="128" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A128" s="315" t="s">
+      <c r="A128" s="322" t="s">
         <v>183</v>
       </c>
-      <c r="B128" s="316" t="s">
+      <c r="B128" s="323" t="s">
         <v>6</v>
       </c>
-      <c r="C128" s="276">
+      <c r="C128" s="283">
         <f>+E128</f>
         <v>0</v>
       </c>
@@ -48833,9 +49084,9 @@
       <c r="AM128" s="121"/>
     </row>
     <row r="129" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A129" s="315"/>
-      <c r="B129" s="316"/>
-      <c r="C129" s="276"/>
+      <c r="A129" s="322"/>
+      <c r="B129" s="323"/>
+      <c r="C129" s="283"/>
       <c r="D129" s="161" t="s">
         <v>123</v>
       </c>
@@ -48878,13 +49129,13 @@
       <c r="AM129" s="122"/>
     </row>
     <row r="130" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A130" s="315" t="s">
+      <c r="A130" s="322" t="s">
         <v>184</v>
       </c>
-      <c r="B130" s="316" t="s">
+      <c r="B130" s="323" t="s">
         <v>6</v>
       </c>
-      <c r="C130" s="276">
+      <c r="C130" s="283">
         <f>+E130</f>
         <v>0</v>
       </c>
@@ -48930,9 +49181,9 @@
       <c r="AM130" s="121"/>
     </row>
     <row r="131" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A131" s="315"/>
-      <c r="B131" s="316"/>
-      <c r="C131" s="276"/>
+      <c r="A131" s="322"/>
+      <c r="B131" s="323"/>
+      <c r="C131" s="283"/>
       <c r="D131" s="161" t="s">
         <v>123</v>
       </c>
@@ -48975,13 +49226,13 @@
       <c r="AM131" s="122"/>
     </row>
     <row r="132" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A132" s="315" t="s">
+      <c r="A132" s="322" t="s">
         <v>185</v>
       </c>
-      <c r="B132" s="316" t="s">
+      <c r="B132" s="323" t="s">
         <v>6</v>
       </c>
-      <c r="C132" s="276">
+      <c r="C132" s="283">
         <f>+E132</f>
         <v>0</v>
       </c>
@@ -49027,9 +49278,9 @@
       <c r="AM132" s="121"/>
     </row>
     <row r="133" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A133" s="315"/>
-      <c r="B133" s="316"/>
-      <c r="C133" s="276"/>
+      <c r="A133" s="322"/>
+      <c r="B133" s="323"/>
+      <c r="C133" s="283"/>
       <c r="D133" s="161" t="s">
         <v>123</v>
       </c>
@@ -49072,14 +49323,14 @@
       <c r="AM133" s="122"/>
     </row>
     <row r="134" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A134" s="311" t="s">
+      <c r="A134" s="318" t="s">
         <v>6</v>
       </c>
-      <c r="B134" s="275">
+      <c r="B134" s="282">
         <f>+E134</f>
         <v>0</v>
       </c>
-      <c r="C134" s="276">
+      <c r="C134" s="283">
         <v>0</v>
       </c>
       <c r="D134" s="159" t="s">
@@ -49122,9 +49373,9 @@
       <c r="AM134" s="121"/>
     </row>
     <row r="135" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A135" s="311"/>
-      <c r="B135" s="275"/>
-      <c r="C135" s="276"/>
+      <c r="A135" s="318"/>
+      <c r="B135" s="282"/>
+      <c r="C135" s="283"/>
       <c r="D135" s="161" t="s">
         <v>123</v>
       </c>
@@ -49165,14 +49416,14 @@
       <c r="AM135" s="122"/>
     </row>
     <row r="136" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A136" s="311" t="s">
+      <c r="A136" s="318" t="s">
         <v>6</v>
       </c>
-      <c r="B136" s="310">
+      <c r="B136" s="317">
         <f>+E136</f>
         <v>0</v>
       </c>
-      <c r="C136" s="276">
+      <c r="C136" s="283">
         <v>0</v>
       </c>
       <c r="D136" s="161" t="s">
@@ -49215,9 +49466,9 @@
       <c r="AM136" s="121"/>
     </row>
     <row r="137" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A137" s="311"/>
-      <c r="B137" s="310"/>
-      <c r="C137" s="276"/>
+      <c r="A137" s="318"/>
+      <c r="B137" s="317"/>
+      <c r="C137" s="283"/>
       <c r="D137" s="161" t="s">
         <v>123</v>
       </c>
@@ -49291,13 +49542,13 @@
       <c r="AC138" s="158"/>
     </row>
     <row r="139" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A139" s="314" t="s">
+      <c r="A139" s="321" t="s">
         <v>6</v>
       </c>
-      <c r="B139" s="317" t="s">
+      <c r="B139" s="324" t="s">
         <v>6</v>
       </c>
-      <c r="C139" s="276">
+      <c r="C139" s="283">
         <v>0</v>
       </c>
       <c r="D139" s="161" t="s">
@@ -49340,9 +49591,9 @@
       <c r="AM139" s="121"/>
     </row>
     <row r="140" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A140" s="314"/>
-      <c r="B140" s="317"/>
-      <c r="C140" s="276"/>
+      <c r="A140" s="321"/>
+      <c r="B140" s="324"/>
+      <c r="C140" s="283"/>
       <c r="D140" s="168" t="s">
         <v>123</v>
       </c>
@@ -49383,13 +49634,13 @@
       <c r="AM140" s="127"/>
     </row>
     <row r="141" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A141" s="315" t="s">
+      <c r="A141" s="322" t="s">
         <v>186</v>
       </c>
-      <c r="B141" s="317" t="s">
+      <c r="B141" s="324" t="s">
         <v>6</v>
       </c>
-      <c r="C141" s="276">
+      <c r="C141" s="283">
         <f>+E141</f>
         <v>3.8630089000000001</v>
       </c>
@@ -49434,9 +49685,9 @@
       <c r="AM141" s="121"/>
     </row>
     <row r="142" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A142" s="315"/>
-      <c r="B142" s="317"/>
-      <c r="C142" s="276"/>
+      <c r="A142" s="322"/>
+      <c r="B142" s="324"/>
+      <c r="C142" s="283"/>
       <c r="D142" s="161" t="s">
         <v>123</v>
       </c>
@@ -49478,13 +49729,13 @@
       <c r="AM142" s="122"/>
     </row>
     <row r="143" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A143" s="315" t="s">
+      <c r="A143" s="322" t="s">
         <v>187</v>
       </c>
-      <c r="B143" s="317" t="s">
+      <c r="B143" s="324" t="s">
         <v>6</v>
       </c>
-      <c r="C143" s="276">
+      <c r="C143" s="283">
         <f>+E143</f>
         <v>3.8630089600000002</v>
       </c>
@@ -49530,9 +49781,9 @@
       <c r="AM143" s="121"/>
     </row>
     <row r="144" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A144" s="315"/>
-      <c r="B144" s="317"/>
-      <c r="C144" s="276"/>
+      <c r="A144" s="322"/>
+      <c r="B144" s="324"/>
+      <c r="C144" s="283"/>
       <c r="D144" s="161" t="s">
         <v>123</v>
       </c>
@@ -49575,13 +49826,13 @@
       <c r="AM144" s="122"/>
     </row>
     <row r="145" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A145" s="315" t="s">
+      <c r="A145" s="322" t="s">
         <v>188</v>
       </c>
-      <c r="B145" s="317" t="s">
+      <c r="B145" s="324" t="s">
         <v>6</v>
       </c>
-      <c r="C145" s="276">
+      <c r="C145" s="283">
         <f>+E145</f>
         <v>7.0260103999999997</v>
       </c>
@@ -49651,9 +49902,9 @@
       <c r="AM145" s="121"/>
     </row>
     <row r="146" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A146" s="315"/>
-      <c r="B146" s="317"/>
-      <c r="C146" s="276"/>
+      <c r="A146" s="322"/>
+      <c r="B146" s="324"/>
+      <c r="C146" s="283"/>
       <c r="D146" s="161" t="s">
         <v>123</v>
       </c>
@@ -49753,11 +50004,11 @@
       <c r="AC147" s="158"/>
     </row>
     <row r="148" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A148" s="311"/>
-      <c r="B148" s="316" t="s">
+      <c r="A148" s="318"/>
+      <c r="B148" s="323" t="s">
         <v>6</v>
       </c>
-      <c r="C148" s="276">
+      <c r="C148" s="283">
         <f>+E148</f>
         <v>0</v>
       </c>
@@ -49801,9 +50052,9 @@
       <c r="AM148" s="121"/>
     </row>
     <row r="149" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A149" s="311"/>
-      <c r="B149" s="316"/>
-      <c r="C149" s="276"/>
+      <c r="A149" s="318"/>
+      <c r="B149" s="323"/>
+      <c r="C149" s="283"/>
       <c r="D149" s="161" t="s">
         <v>123</v>
       </c>
@@ -49844,11 +50095,11 @@
       <c r="AM149" s="122"/>
     </row>
     <row r="150" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A150" s="311"/>
-      <c r="B150" s="316" t="s">
+      <c r="A150" s="318"/>
+      <c r="B150" s="323" t="s">
         <v>6</v>
       </c>
-      <c r="C150" s="313">
+      <c r="C150" s="320">
         <f>+E150</f>
         <v>0</v>
       </c>
@@ -49892,9 +50143,9 @@
       <c r="AM150" s="121"/>
     </row>
     <row r="151" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A151" s="311"/>
-      <c r="B151" s="316"/>
-      <c r="C151" s="313"/>
+      <c r="A151" s="318"/>
+      <c r="B151" s="323"/>
+      <c r="C151" s="320"/>
       <c r="D151" s="161" t="s">
         <v>123</v>
       </c>

--- a/models/energy.xlsx
+++ b/models/energy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14220" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14220" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="2" r:id="rId1"/>
@@ -11319,9 +11319,6 @@
     <t>PHS</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Non-energetic uses</t>
   </si>
   <si>
@@ -11566,6 +11563,9 @@
   </si>
   <si>
     <t>Max PE biogas</t>
+  </si>
+  <si>
+    <t>Percentage Cat vs Europe:</t>
   </si>
 </sst>
 </file>
@@ -13026,7 +13026,6 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -13040,6 +13039,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -14774,8 +14774,8 @@
   </sheetPr>
   <dimension ref="A2:AT199"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+    <sheetView topLeftCell="A140" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B192" sqref="B192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -20925,7 +20925,7 @@
     </row>
     <row r="144" spans="1:24">
       <c r="A144" s="221" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C144" s="234"/>
       <c r="D144" s="234"/>
@@ -20951,7 +20951,7 @@
     </row>
     <row r="145" spans="1:28">
       <c r="A145" s="186" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>56</v>
@@ -21041,12 +21041,12 @@
       </c>
       <c r="X145" s="224"/>
       <c r="Y145" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="146" spans="1:28">
       <c r="A146" s="186" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>56</v>
@@ -21138,7 +21138,7 @@
     </row>
     <row r="147" spans="1:28">
       <c r="A147" s="186" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>56</v>
@@ -21210,7 +21210,7 @@
     </row>
     <row r="148" spans="1:28">
       <c r="A148" s="186" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>56</v>
@@ -21282,7 +21282,7 @@
     </row>
     <row r="149" spans="1:28">
       <c r="A149" s="186" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>56</v>
@@ -21354,7 +21354,7 @@
     </row>
     <row r="150" spans="1:28">
       <c r="A150" s="225" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C150" s="234"/>
       <c r="D150" s="234"/>
@@ -21380,7 +21380,7 @@
     </row>
     <row r="151" spans="1:28">
       <c r="A151" s="186" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B151" s="227" t="s">
         <v>3</v>
@@ -21450,12 +21450,12 @@
       </c>
       <c r="X151" s="228"/>
       <c r="Y151" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="152" spans="1:28">
       <c r="A152" s="186" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B152" s="227" t="s">
         <v>3</v>
@@ -21527,7 +21527,7 @@
     </row>
     <row r="153" spans="1:28">
       <c r="A153" s="186" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B153" s="227" t="s">
         <v>3</v>
@@ -21599,7 +21599,7 @@
     </row>
     <row r="154" spans="1:28">
       <c r="A154" s="226" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C154" s="234"/>
       <c r="D154" s="234"/>
@@ -21625,7 +21625,7 @@
     </row>
     <row r="155" spans="1:28">
       <c r="A155" s="186" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B155" s="227" t="s">
         <v>3</v>
@@ -21695,7 +21695,7 @@
     </row>
     <row r="156" spans="1:28">
       <c r="A156" s="186" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B156" s="227" t="s">
         <v>3</v>
@@ -21765,7 +21765,7 @@
     </row>
     <row r="157" spans="1:28">
       <c r="A157" s="186" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B157" s="227" t="s">
         <v>3</v>
@@ -21858,7 +21858,7 @@
     </row>
     <row r="159" spans="1:28">
       <c r="A159" s="186" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B159" s="227" t="s">
         <v>56</v>
@@ -21928,7 +21928,7 @@
       </c>
       <c r="X159" s="6"/>
       <c r="Z159" s="186" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AA159" s="6" t="s">
         <v>3</v>
@@ -21962,7 +21962,7 @@
     </row>
     <row r="161" spans="1:24">
       <c r="A161" s="230" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>56</v>
@@ -22034,57 +22034,57 @@
     </row>
     <row r="165" spans="1:24">
       <c r="A165" s="255" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B165" s="260" t="s">
+        <v>318</v>
+      </c>
+      <c r="C165" s="261" t="s">
         <v>319</v>
       </c>
-      <c r="C165" s="261" t="s">
+      <c r="D165" s="261" t="s">
         <v>320</v>
       </c>
-      <c r="D165" s="261" t="s">
+      <c r="E165" s="261" t="s">
         <v>321</v>
       </c>
-      <c r="E165" s="261" t="s">
+      <c r="F165" s="261" t="s">
         <v>322</v>
       </c>
-      <c r="F165" s="261" t="s">
+      <c r="G165" s="261" t="s">
         <v>323</v>
       </c>
-      <c r="G165" s="261" t="s">
+      <c r="H165" s="261" t="s">
         <v>324</v>
       </c>
-      <c r="H165" s="261" t="s">
+      <c r="I165" s="261" t="s">
         <v>325</v>
       </c>
-      <c r="I165" s="261" t="s">
+      <c r="J165" s="261" t="s">
         <v>326</v>
       </c>
-      <c r="J165" s="261" t="s">
+      <c r="K165" s="261" t="s">
         <v>327</v>
       </c>
-      <c r="K165" s="261" t="s">
+      <c r="L165" s="261" t="s">
         <v>328</v>
       </c>
-      <c r="L165" s="261" t="s">
+      <c r="M165" s="261" t="s">
         <v>329</v>
       </c>
-      <c r="M165" s="261" t="s">
+      <c r="N165" s="261" t="s">
         <v>330</v>
       </c>
-      <c r="N165" s="261" t="s">
+      <c r="O165" s="261" t="s">
         <v>331</v>
       </c>
-      <c r="O165" s="261" t="s">
+      <c r="P165" s="261" t="s">
         <v>332</v>
-      </c>
-      <c r="P165" s="261" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="166" spans="1:24">
       <c r="A166" s="256" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B166" s="20">
         <v>3.19497005188102E-3</v>
@@ -22134,7 +22134,7 @@
     </row>
     <row r="167" spans="1:24">
       <c r="A167" s="256" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B167" s="20">
         <v>7.8374948309083606E-2</v>
@@ -22184,7 +22184,7 @@
     </row>
     <row r="168" spans="1:24">
       <c r="A168" s="256" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B168" s="20">
         <v>8.59462824392432E-3</v>
@@ -22234,7 +22234,7 @@
     </row>
     <row r="169" spans="1:24">
       <c r="A169" s="256" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B169" s="20">
         <v>1.94235679619079E-2</v>
@@ -22284,7 +22284,7 @@
     </row>
     <row r="170" spans="1:24">
       <c r="A170" s="256" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B170" s="20">
         <v>3.9873808391657203E-2</v>
@@ -22334,7 +22334,7 @@
     </row>
     <row r="171" spans="1:24">
       <c r="A171" s="255" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B171" s="20"/>
       <c r="C171" s="20"/>
@@ -22354,7 +22354,7 @@
     </row>
     <row r="172" spans="1:24">
       <c r="A172" s="257" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B172" s="20">
         <v>0</v>
@@ -22404,7 +22404,7 @@
     </row>
     <row r="173" spans="1:24">
       <c r="A173" s="257" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B173" s="20">
         <v>0</v>
@@ -22454,7 +22454,7 @@
     </row>
     <row r="174" spans="1:24">
       <c r="A174" s="257" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B174" s="20">
         <v>0</v>
@@ -22504,7 +22504,7 @@
     </row>
     <row r="175" spans="1:24">
       <c r="A175" s="257" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B175" s="20">
         <v>0</v>
@@ -22554,7 +22554,7 @@
     </row>
     <row r="176" spans="1:24">
       <c r="A176" s="257" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B176" s="20">
         <v>0</v>
@@ -22604,7 +22604,7 @@
     </row>
     <row r="177" spans="1:16">
       <c r="A177" s="258" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="20"/>
@@ -22624,7 +22624,7 @@
     </row>
     <row r="178" spans="1:16">
       <c r="A178" s="257" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B178" s="20">
         <v>4.33427061003459E-3</v>
@@ -22674,7 +22674,7 @@
     </row>
     <row r="179" spans="1:16">
       <c r="A179" s="257" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B179" s="20">
         <v>2.1953290779956499E-2</v>
@@ -22724,7 +22724,7 @@
     </row>
     <row r="180" spans="1:16">
       <c r="A180" s="257" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B180" s="20">
         <v>2.5375451485255999E-2</v>
@@ -22774,7 +22774,7 @@
     </row>
     <row r="181" spans="1:16">
       <c r="A181" s="257" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B181" s="20">
         <v>1.08158724337356E-2</v>
@@ -22824,7 +22824,7 @@
     </row>
     <row r="182" spans="1:16">
       <c r="A182" s="257" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B182" s="20">
         <v>1.0890999470972801E-2</v>
@@ -22892,7 +22892,7 @@
     </row>
     <row r="185" spans="1:16">
       <c r="A185" s="265" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B185" s="264"/>
       <c r="C185" s="264"/>
@@ -22903,25 +22903,25 @@
     </row>
     <row r="186" spans="1:16">
       <c r="A186" s="263" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B186" s="35" t="s">
-        <v>336</v>
-      </c>
-      <c r="C186" s="262">
-        <v>1</v>
+        <v>335</v>
+      </c>
+      <c r="C186" s="272">
+        <v>1.2</v>
       </c>
       <c r="D186" s="39"/>
     </row>
     <row r="187" spans="1:16">
       <c r="A187" s="263" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B187" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="C187" s="262">
-        <v>0.3</v>
+      <c r="C187" s="272">
+        <v>0.88</v>
       </c>
       <c r="D187" s="39"/>
       <c r="E187" s="39"/>
@@ -22929,26 +22929,26 @@
     </row>
     <row r="188" spans="1:16">
       <c r="A188" s="263" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B188" s="35" t="s">
-        <v>336</v>
-      </c>
-      <c r="C188" s="262">
-        <v>0.25</v>
+        <v>335</v>
+      </c>
+      <c r="C188" s="272">
+        <v>0.6</v>
       </c>
       <c r="D188" s="39"/>
       <c r="E188" s="39"/>
     </row>
     <row r="189" spans="1:16">
       <c r="A189" s="263" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B189" s="35" t="s">
-        <v>336</v>
-      </c>
-      <c r="C189" s="262">
-        <v>0.05</v>
+        <v>335</v>
+      </c>
+      <c r="C189" s="272">
+        <v>0.95</v>
       </c>
       <c r="D189" s="39"/>
       <c r="E189" s="39"/>
@@ -22956,13 +22956,13 @@
     </row>
     <row r="190" spans="1:16">
       <c r="A190" s="263" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B190" s="35" t="s">
-        <v>336</v>
-      </c>
-      <c r="C190" s="262">
-        <v>1</v>
+        <v>335</v>
+      </c>
+      <c r="C190" s="272">
+        <v>3.36</v>
       </c>
       <c r="D190" s="39"/>
       <c r="E190" s="39"/>
@@ -22970,13 +22970,13 @@
     </row>
     <row r="191" spans="1:16">
       <c r="A191" s="263" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B191" s="35" t="s">
-        <v>336</v>
-      </c>
-      <c r="C191" s="262">
-        <v>0.25</v>
+        <v>335</v>
+      </c>
+      <c r="C191" s="272">
+        <v>13.46</v>
       </c>
       <c r="D191" s="39"/>
       <c r="E191" s="39"/>
@@ -22984,13 +22984,13 @@
     </row>
     <row r="192" spans="1:16">
       <c r="A192" s="263" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B192" s="35" t="s">
-        <v>334</v>
-      </c>
-      <c r="C192" s="262">
-        <v>100</v>
+        <v>333</v>
+      </c>
+      <c r="C192" s="272">
+        <v>325</v>
       </c>
       <c r="D192" s="39"/>
       <c r="E192" s="39"/>
@@ -22998,75 +22998,75 @@
       <c r="G192" s="39"/>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="272" t="s">
-        <v>344</v>
+      <c r="A193" s="271" t="s">
+        <v>343</v>
       </c>
       <c r="B193" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C193" s="273">
+      <c r="C193" s="272">
         <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="272" t="s">
-        <v>345</v>
+      <c r="A194" s="271" t="s">
+        <v>344</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C194" s="273">
-        <v>30</v>
+      <c r="C194" s="272">
+        <v>47</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="272" t="s">
-        <v>346</v>
+      <c r="A195" s="271" t="s">
+        <v>345</v>
       </c>
       <c r="B195" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C195" s="273">
+      <c r="C195" s="272">
         <v>25</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="272" t="s">
-        <v>347</v>
+      <c r="A196" s="271" t="s">
+        <v>346</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C196" s="273">
-        <v>4</v>
+      <c r="C196" s="272">
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="265" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B197" s="264"/>
       <c r="C197" s="264"/>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="272" t="s">
-        <v>349</v>
+      <c r="A198" s="271" t="s">
+        <v>348</v>
       </c>
       <c r="B198" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C198" s="273">
+      <c r="C198" s="272">
         <v>22</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="272" t="s">
-        <v>350</v>
+      <c r="A199" s="271" t="s">
+        <v>349</v>
       </c>
       <c r="B199" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="C199" s="273">
+      <c r="C199" s="272">
         <v>0.3</v>
       </c>
     </row>
@@ -23135,8 +23135,8 @@
   </sheetPr>
   <dimension ref="A2:AT212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C210" sqref="C210"/>
+    <sheetView topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -28626,7 +28626,7 @@
     </row>
     <row r="142" spans="1:24">
       <c r="A142" s="230" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B142" s="28" t="s">
         <v>56</v>
@@ -29369,12 +29369,12 @@
     </row>
     <row r="153" spans="1:24">
       <c r="A153" s="221" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="154" spans="1:24">
       <c r="A154" s="185" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>56</v>
@@ -29446,7 +29446,7 @@
     </row>
     <row r="155" spans="1:24">
       <c r="A155" s="185" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>56</v>
@@ -29518,7 +29518,7 @@
     </row>
     <row r="156" spans="1:24">
       <c r="A156" s="185" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>56</v>
@@ -29590,7 +29590,7 @@
     </row>
     <row r="157" spans="1:24">
       <c r="A157" s="185" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>56</v>
@@ -29662,7 +29662,7 @@
     </row>
     <row r="158" spans="1:24">
       <c r="A158" s="185" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>56</v>
@@ -29734,12 +29734,12 @@
     </row>
     <row r="159" spans="1:24">
       <c r="A159" s="225" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="160" spans="1:24">
       <c r="A160" s="185" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B160" s="227" t="s">
         <v>3</v>
@@ -29811,7 +29811,7 @@
     </row>
     <row r="161" spans="1:29">
       <c r="A161" s="185" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B161" s="227" t="s">
         <v>3</v>
@@ -29883,7 +29883,7 @@
     </row>
     <row r="162" spans="1:29">
       <c r="A162" s="185" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B162" s="227" t="s">
         <v>3</v>
@@ -29955,12 +29955,12 @@
     </row>
     <row r="163" spans="1:29">
       <c r="A163" s="226" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="164" spans="1:29">
       <c r="A164" s="185" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B164" s="227" t="s">
         <v>3</v>
@@ -30032,7 +30032,7 @@
     </row>
     <row r="165" spans="1:29">
       <c r="A165" s="185" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B165" s="227" t="s">
         <v>3</v>
@@ -30104,7 +30104,7 @@
     </row>
     <row r="166" spans="1:29">
       <c r="A166" s="185" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B166" s="227" t="s">
         <v>3</v>
@@ -30176,7 +30176,7 @@
     </row>
     <row r="168" spans="1:29">
       <c r="A168" s="185" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B168" s="227" t="s">
         <v>56</v>
@@ -30246,7 +30246,7 @@
       </c>
       <c r="X168" s="6"/>
       <c r="Z168" s="185" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AA168" s="6" t="s">
         <v>3</v>
@@ -30255,12 +30255,12 @@
         <v>4.4363405384274399E-2</v>
       </c>
       <c r="AC168" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="170" spans="1:29">
       <c r="A170" s="185" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>56</v>
@@ -30332,13 +30332,13 @@
     </row>
     <row r="171" spans="1:29">
       <c r="A171" s="247" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B171" s="248"/>
     </row>
     <row r="172" spans="1:29">
       <c r="A172" s="170" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B172" s="174" t="s">
         <v>56</v>
@@ -30412,7 +30412,7 @@
     </row>
     <row r="173" spans="1:29">
       <c r="A173" s="170" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B173" s="174" t="s">
         <v>56</v>
@@ -30486,7 +30486,7 @@
     </row>
     <row r="174" spans="1:29">
       <c r="A174" s="170" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B174" s="174" t="s">
         <v>56</v>
@@ -30560,7 +30560,7 @@
     </row>
     <row r="175" spans="1:29">
       <c r="A175" s="170" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B175" s="174" t="s">
         <v>56</v>
@@ -30634,7 +30634,7 @@
     </row>
     <row r="176" spans="1:29">
       <c r="A176" s="172" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>56</v>
@@ -30706,15 +30706,15 @@
         <v>5.9530167011017596</v>
       </c>
       <c r="Z176" s="251" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="177" spans="1:26">
       <c r="A177" s="170" t="s">
+        <v>301</v>
+      </c>
+      <c r="B177" s="174" t="s">
         <v>302</v>
-      </c>
-      <c r="B177" s="174" t="s">
-        <v>303</v>
       </c>
       <c r="C177" s="231">
         <v>2186</v>
@@ -30787,57 +30787,57 @@
     </row>
     <row r="180" spans="1:26">
       <c r="A180" s="255" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B180" s="260" t="s">
+        <v>318</v>
+      </c>
+      <c r="C180" s="261" t="s">
         <v>319</v>
       </c>
-      <c r="C180" s="261" t="s">
+      <c r="D180" s="261" t="s">
         <v>320</v>
       </c>
-      <c r="D180" s="261" t="s">
+      <c r="E180" s="261" t="s">
         <v>321</v>
       </c>
-      <c r="E180" s="261" t="s">
+      <c r="F180" s="261" t="s">
         <v>322</v>
       </c>
-      <c r="F180" s="261" t="s">
+      <c r="G180" s="261" t="s">
         <v>323</v>
       </c>
-      <c r="G180" s="261" t="s">
+      <c r="H180" s="261" t="s">
         <v>324</v>
       </c>
-      <c r="H180" s="261" t="s">
+      <c r="I180" s="261" t="s">
         <v>325</v>
       </c>
-      <c r="I180" s="261" t="s">
+      <c r="J180" s="261" t="s">
         <v>326</v>
       </c>
-      <c r="J180" s="261" t="s">
+      <c r="K180" s="261" t="s">
         <v>327</v>
       </c>
-      <c r="K180" s="261" t="s">
+      <c r="L180" s="261" t="s">
         <v>328</v>
       </c>
-      <c r="L180" s="261" t="s">
+      <c r="M180" s="261" t="s">
         <v>329</v>
       </c>
-      <c r="M180" s="261" t="s">
+      <c r="N180" s="261" t="s">
         <v>330</v>
       </c>
-      <c r="N180" s="261" t="s">
+      <c r="O180" s="261" t="s">
         <v>331</v>
       </c>
-      <c r="O180" s="261" t="s">
+      <c r="P180" s="261" t="s">
         <v>332</v>
-      </c>
-      <c r="P180" s="261" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="181" spans="1:26">
       <c r="A181" s="256" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B181" s="20">
         <v>3.19497005188102E-3</v>
@@ -30887,7 +30887,7 @@
     </row>
     <row r="182" spans="1:26">
       <c r="A182" s="256" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B182" s="20">
         <v>7.8374948309083606E-2</v>
@@ -30937,7 +30937,7 @@
     </row>
     <row r="183" spans="1:26">
       <c r="A183" s="256" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B183" s="20">
         <v>8.59462824392432E-3</v>
@@ -30987,7 +30987,7 @@
     </row>
     <row r="184" spans="1:26">
       <c r="A184" s="256" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B184" s="20">
         <v>1.94235679619079E-2</v>
@@ -31037,7 +31037,7 @@
     </row>
     <row r="185" spans="1:26">
       <c r="A185" s="256" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B185" s="20">
         <v>3.9873808391657203E-2</v>
@@ -31087,7 +31087,7 @@
     </row>
     <row r="186" spans="1:26">
       <c r="A186" s="255" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B186" s="20"/>
       <c r="C186" s="20"/>
@@ -31107,7 +31107,7 @@
     </row>
     <row r="187" spans="1:26">
       <c r="A187" s="257" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B187" s="20">
         <v>0</v>
@@ -31157,7 +31157,7 @@
     </row>
     <row r="188" spans="1:26">
       <c r="A188" s="257" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B188" s="20">
         <v>0</v>
@@ -31207,7 +31207,7 @@
     </row>
     <row r="189" spans="1:26">
       <c r="A189" s="257" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B189" s="20">
         <v>0</v>
@@ -31257,7 +31257,7 @@
     </row>
     <row r="190" spans="1:26">
       <c r="A190" s="257" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B190" s="20">
         <v>0</v>
@@ -31307,7 +31307,7 @@
     </row>
     <row r="191" spans="1:26">
       <c r="A191" s="257" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B191" s="20">
         <v>0</v>
@@ -31357,7 +31357,7 @@
     </row>
     <row r="192" spans="1:26">
       <c r="A192" s="258" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="20"/>
@@ -31377,7 +31377,7 @@
     </row>
     <row r="193" spans="1:16">
       <c r="A193" s="257" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B193" s="20">
         <v>4.33427061003459E-3</v>
@@ -31427,7 +31427,7 @@
     </row>
     <row r="194" spans="1:16">
       <c r="A194" s="257" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B194" s="20">
         <v>2.1953290779956499E-2</v>
@@ -31477,7 +31477,7 @@
     </row>
     <row r="195" spans="1:16">
       <c r="A195" s="257" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B195" s="20">
         <v>2.5375451485255999E-2</v>
@@ -31527,7 +31527,7 @@
     </row>
     <row r="196" spans="1:16">
       <c r="A196" s="257" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B196" s="20">
         <v>1.08158724337356E-2</v>
@@ -31577,7 +31577,7 @@
     </row>
     <row r="197" spans="1:16">
       <c r="A197" s="257" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B197" s="20">
         <v>1.0890999470972801E-2</v>
@@ -31627,7 +31627,7 @@
     </row>
     <row r="200" spans="1:16">
       <c r="A200" s="265" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B200" s="264"/>
       <c r="C200" s="264"/>
@@ -31635,19 +31635,19 @@
     </row>
     <row r="201" spans="1:16">
       <c r="A201" s="263" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B201" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C201" s="262">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="D201" s="39"/>
     </row>
     <row r="202" spans="1:16">
       <c r="A202" s="263" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B202" s="35" t="s">
         <v>252</v>
@@ -31659,22 +31659,22 @@
     </row>
     <row r="203" spans="1:16">
       <c r="A203" s="263" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B203" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C203" s="262">
-        <v>1.38E-2</v>
+        <v>0.15</v>
       </c>
       <c r="D203" s="39"/>
     </row>
     <row r="204" spans="1:16">
       <c r="A204" s="263" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B204" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C204" s="262">
         <v>1.1000000000000001E-3</v>
@@ -31683,22 +31683,22 @@
     </row>
     <row r="205" spans="1:16">
       <c r="A205" s="263" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B205" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C205" s="262">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D205" s="39"/>
     </row>
     <row r="206" spans="1:16">
       <c r="A206" s="263" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B206" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C206" s="262">
         <v>0.1</v>
@@ -31707,15 +31707,15 @@
     </row>
     <row r="207" spans="1:16">
       <c r="A207" s="265" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B207" s="264"/>
       <c r="C207" s="264"/>
-      <c r="D207" s="271"/>
+      <c r="D207" s="270"/>
     </row>
     <row r="208" spans="1:16">
       <c r="A208" s="263" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B208" s="35" t="s">
         <v>252</v>
@@ -31733,7 +31733,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="263" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B210" s="35" t="s">
         <v>56</v>
@@ -31744,7 +31744,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="263" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>56</v>
@@ -31796,7 +31796,7 @@
     <mergeCell ref="E36:G36"/>
   </mergeCells>
   <conditionalFormatting sqref="B180:P180">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31819,8 +31819,8 @@
   </sheetPr>
   <dimension ref="A2:AT214"/>
   <sheetViews>
-    <sheetView topLeftCell="A188" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A223" sqref="A223"/>
+    <sheetView tabSelected="1" topLeftCell="G148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y155" sqref="Y155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -37056,7 +37056,7 @@
     </row>
     <row r="142" spans="1:24">
       <c r="A142" s="173" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B142" s="28" t="s">
         <v>56</v>
@@ -37260,70 +37260,70 @@
         <v>269</v>
       </c>
       <c r="C146" s="218">
-        <v>1.1104756647412501E-2</v>
+        <v>2.266218E-3</v>
       </c>
       <c r="D146" s="218">
-        <v>1.12045939320681E-2</v>
+        <v>2.2683349999999998E-3</v>
       </c>
       <c r="E146" s="218">
-        <v>1.13053288035618E-2</v>
+        <v>2.276354E-3</v>
       </c>
       <c r="F146" s="218">
-        <v>1.1406969331645801E-2</v>
+        <v>2.2816809999999998E-3</v>
       </c>
       <c r="G146" s="218">
-        <v>1.1509523658623001E-2</v>
+        <v>2.2915980000000002E-3</v>
       </c>
       <c r="H146" s="218">
-        <v>1.1613E-2</v>
+        <v>2.2930989999999998E-3</v>
       </c>
       <c r="I146" s="218">
-        <v>1.1639999999999999E-2</v>
+        <v>2.314581E-3</v>
       </c>
       <c r="J146" s="218">
-        <v>1.1504E-2</v>
+        <v>2.3198680000000001E-3</v>
       </c>
       <c r="K146" s="218">
-        <v>1.1545E-2</v>
+        <v>2.3190749999999999E-3</v>
       </c>
       <c r="L146" s="218">
-        <v>1.1578E-2</v>
+        <v>2.3196190000000002E-3</v>
       </c>
       <c r="M146" s="218">
-        <v>1.1632E-2</v>
+        <v>2.3256420000000002E-3</v>
       </c>
       <c r="N146" s="218">
-        <v>1.1649E-2</v>
+        <v>2.3579009999999999E-3</v>
       </c>
       <c r="O146" s="218">
-        <v>1.1809999999999999E-2</v>
+        <v>2.360221E-3</v>
       </c>
       <c r="P146" s="218">
-        <v>1.2263E-2</v>
+        <v>2.3610240000000002E-3</v>
       </c>
       <c r="Q146" s="218">
-        <v>1.2446E-2</v>
+        <v>2.3607649999999999E-3</v>
       </c>
       <c r="R146" s="218">
-        <v>1.2706E-2</v>
+        <v>2.3604199999999998E-3</v>
       </c>
       <c r="S146" s="218">
-        <v>1.298E-2</v>
+        <v>2.3604898000000002E-3</v>
       </c>
       <c r="T146" s="218">
-        <v>1.3076000000000001E-2</v>
+        <v>2.3610787999999998E-3</v>
       </c>
       <c r="U146" s="218">
-        <v>1.3148999999999999E-2</v>
+        <v>2.3662587999999998E-3</v>
       </c>
       <c r="V146" s="218">
-        <v>1.3292999999999999E-2</v>
+        <v>2.3654508000000001E-3</v>
       </c>
       <c r="W146" s="219">
-        <v>1.3351E-2</v>
+        <v>2.3677158000000001E-3</v>
       </c>
       <c r="X146" s="218">
-        <v>1.3384E-2</v>
+        <v>2.3653718000000001E-3</v>
       </c>
     </row>
     <row r="147" spans="1:24">
@@ -37355,49 +37355,49 @@
         <v>0</v>
       </c>
       <c r="J147" s="231">
-        <v>1.9999999999999999E-6</v>
+        <v>0</v>
       </c>
       <c r="K147" s="231">
-        <v>1.9999999999999999E-6</v>
+        <v>0</v>
       </c>
       <c r="L147" s="231">
-        <v>1.9999999999999999E-6</v>
+        <v>0</v>
       </c>
       <c r="M147" s="231">
-        <v>1.9999999999999999E-6</v>
+        <v>0</v>
       </c>
       <c r="N147" s="231">
-        <v>1.9999999999999999E-6</v>
+        <v>0</v>
       </c>
       <c r="O147" s="231">
-        <v>1.9999999999999999E-6</v>
+        <v>0</v>
       </c>
       <c r="P147" s="231">
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
       <c r="Q147" s="231">
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
       <c r="R147" s="231">
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
       <c r="S147" s="231">
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
       <c r="T147" s="231">
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
       <c r="U147" s="231">
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
       <c r="V147" s="233">
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
       <c r="W147" s="232">
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
       <c r="X147" s="231">
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:24">
@@ -37408,70 +37408,70 @@
         <v>269</v>
       </c>
       <c r="C148" s="218">
-        <v>6.7831498862018405E-4</v>
+        <v>2.041E-6</v>
       </c>
       <c r="D148" s="218">
-        <v>6.9828143953841796E-4</v>
+        <v>2.2910000000000002E-6</v>
       </c>
       <c r="E148" s="218">
-        <v>7.1883561027555299E-4</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="F148" s="218">
-        <v>7.3999480058040102E-4</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="G148" s="218">
-        <v>7.6177681942623502E-4</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="H148" s="231">
-        <v>7.8419999999999998E-4</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="I148" s="231">
-        <v>7.7099999999999998E-4</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="J148" s="231">
-        <v>7.7099999999999998E-4</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="K148" s="231">
-        <v>1.0371E-3</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="L148" s="231">
-        <v>1.0591000000000001E-3</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="M148" s="231">
-        <v>1.4319999999999999E-3</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="N148" s="231">
-        <v>1.6283000000000001E-3</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="O148" s="231">
-        <v>1.8553E-3</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="P148" s="231">
-        <v>1.8450999999999999E-3</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="Q148" s="231">
-        <v>1.7621E-3</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="R148" s="231">
-        <v>1.7872999999999999E-3</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="S148" s="231">
-        <v>1.8291E-3</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="T148" s="231">
-        <v>1.8515999999999999E-3</v>
+        <v>3.9899999999999999E-6</v>
       </c>
       <c r="U148" s="231">
-        <v>1.4919E-3</v>
+        <v>3.9899999999999999E-6</v>
       </c>
       <c r="V148" s="231">
-        <v>1.1427E-3</v>
+        <v>3.9899999999999999E-6</v>
       </c>
       <c r="W148" s="232">
-        <v>1.2221999999999999E-3</v>
+        <v>3.9899999999999999E-6</v>
       </c>
       <c r="X148" s="231">
-        <v>1.2312E-3</v>
+        <v>3.9899999999999999E-6</v>
       </c>
     </row>
     <row r="149" spans="1:24">
@@ -37556,70 +37556,70 @@
         <v>269</v>
       </c>
       <c r="C150" s="218">
-        <v>9.6010658727423602E-6</v>
+        <v>4.6399999999999996E-6</v>
       </c>
       <c r="D150" s="218">
-        <v>1.3355174298587401E-5</v>
+        <v>4.6399999999999996E-6</v>
       </c>
       <c r="E150" s="218">
-        <v>1.8577174962627701E-5</v>
+        <v>4.6399999999999996E-6</v>
       </c>
       <c r="F150" s="218">
-        <v>2.58410277452227E-5</v>
+        <v>4.6399999999999996E-6</v>
       </c>
       <c r="G150" s="218">
-        <v>3.5945116320038998E-5</v>
+        <v>5.9469999999999998E-5</v>
       </c>
       <c r="H150" s="231">
-        <v>5.0000000000000002E-5</v>
+        <v>7.135E-5</v>
       </c>
       <c r="I150" s="231">
-        <v>6.7000000000000002E-5</v>
+        <v>8.4099999999999998E-5</v>
       </c>
       <c r="J150" s="231">
-        <v>1.0900000000000001E-4</v>
+        <v>8.674E-5</v>
       </c>
       <c r="K150" s="231">
-        <v>3.2200000000000002E-4</v>
+        <v>8.674E-5</v>
       </c>
       <c r="L150" s="231">
-        <v>5.8100000000000003E-4</v>
+        <v>9.4430000000000002E-5</v>
       </c>
       <c r="M150" s="231">
-        <v>7.7800000000000005E-4</v>
+        <v>1.4393000000000001E-4</v>
       </c>
       <c r="N150" s="231">
-        <v>9.3499999999999996E-4</v>
+        <v>2.2434000000000001E-4</v>
       </c>
       <c r="O150" s="231">
-        <v>9.68E-4</v>
+        <v>3.4247999999999999E-4</v>
       </c>
       <c r="P150" s="231">
-        <v>9.8799999999999995E-4</v>
+        <v>4.0570999999999999E-4</v>
       </c>
       <c r="Q150" s="231">
-        <v>9.9400000000000009E-4</v>
+        <v>4.8148E-4</v>
       </c>
       <c r="R150" s="231">
-        <v>9.810000000000001E-4</v>
+        <v>8.3129000000000005E-4</v>
       </c>
       <c r="S150" s="231">
-        <v>1.08E-3</v>
+        <v>9.9455000000000008E-4</v>
       </c>
       <c r="T150" s="231">
-        <v>1.3159999999999999E-3</v>
+        <v>1.2579399999999999E-3</v>
       </c>
       <c r="U150" s="231">
-        <v>1.645E-3</v>
+        <v>1.2669300000000001E-3</v>
       </c>
       <c r="V150" s="231">
-        <v>2.1099999999999999E-3</v>
+        <v>1.26873E-3</v>
       </c>
       <c r="W150" s="232">
-        <v>2.4889999999999999E-3</v>
+        <v>1.26873E-3</v>
       </c>
       <c r="X150" s="231">
-        <v>2.6319999999999998E-3</v>
+        <v>1.26873E-3</v>
       </c>
     </row>
     <row r="151" spans="1:24">
@@ -37704,70 +37704,70 @@
         <v>269</v>
       </c>
       <c r="C152" s="218">
-        <v>3.9300626783237299E-7</v>
+        <v>5.5700000000000002E-7</v>
       </c>
       <c r="D152" s="218">
-        <v>6.5360231575950904E-7</v>
+        <v>6.1180000000000001E-7</v>
       </c>
       <c r="E152" s="218">
-        <v>1.08699535384612E-6</v>
+        <v>7.0360000000000003E-7</v>
       </c>
       <c r="F152" s="218">
-        <v>1.8077642486777801E-6</v>
+        <v>7.5840000000000001E-7</v>
       </c>
       <c r="G152" s="218">
-        <v>3.0064632449755499E-6</v>
+        <v>8.132E-7</v>
       </c>
       <c r="H152" s="231">
-        <v>5.0000000000000004E-6</v>
+        <v>9.0609999999999999E-7</v>
       </c>
       <c r="I152" s="231">
-        <v>6.9999999999999999E-6</v>
+        <v>1.0127000000000001E-6</v>
       </c>
       <c r="J152" s="231">
-        <v>9.0000000000000002E-6</v>
+        <v>1.7437999999999999E-6</v>
       </c>
       <c r="K152" s="231">
-        <v>2.3E-5</v>
+        <v>2.2251999999999999E-6</v>
       </c>
       <c r="L152" s="231">
-        <v>2.6999999999999999E-5</v>
+        <v>3.4585E-6</v>
       </c>
       <c r="M152" s="231">
-        <v>3.0000000000000001E-5</v>
+        <v>3.5817707365743996E-6</v>
       </c>
       <c r="N152" s="231">
-        <v>3.6000000000000001E-5</v>
+        <v>1.0622041473148799E-5</v>
       </c>
       <c r="O152" s="231">
-        <v>4.0000000000000003E-5</v>
+        <v>3.4996891333762097E-5</v>
       </c>
       <c r="P152" s="231">
-        <v>4.8999999999999998E-5</v>
+        <v>1.6309095123849499E-4</v>
       </c>
       <c r="Q152" s="231">
-        <v>7.1000000000000005E-5</v>
+        <v>1.67170787177618E-4</v>
       </c>
       <c r="R152" s="231">
-        <v>1.54E-4</v>
+        <v>1.96269E-4</v>
       </c>
       <c r="S152" s="231">
-        <v>3.1700000000000001E-4</v>
+        <v>2.309E-4</v>
       </c>
       <c r="T152" s="231">
-        <v>3.6299999999999999E-4</v>
+        <v>2.4902399999999998E-4</v>
       </c>
       <c r="U152" s="231">
-        <v>6.2600000000000004E-4</v>
+        <v>2.6490200000000002E-4</v>
       </c>
       <c r="V152" s="231">
-        <v>7.85E-4</v>
+        <v>2.6639900000000001E-4</v>
       </c>
       <c r="W152" s="232">
-        <v>9.3700000000000001E-4</v>
+        <v>2.6705350000000001E-4</v>
       </c>
       <c r="X152" s="231">
-        <v>1.073E-3</v>
+        <v>2.6718500000000002E-4</v>
       </c>
     </row>
     <row r="153" spans="1:24">
@@ -37829,19 +37829,19 @@
         <v>0</v>
       </c>
       <c r="T153" s="218">
-        <v>0</v>
+        <v>2.429E-5</v>
       </c>
       <c r="U153" s="218">
-        <v>0</v>
+        <v>2.429E-5</v>
       </c>
       <c r="V153" s="218">
-        <v>0</v>
+        <v>2.429E-5</v>
       </c>
       <c r="W153" s="232">
-        <v>0</v>
+        <v>2.429E-5</v>
       </c>
       <c r="X153" s="231">
-        <v>0</v>
+        <v>2.429E-5</v>
       </c>
     </row>
     <row r="154" spans="1:24">
@@ -37852,75 +37852,75 @@
         <v>269</v>
       </c>
       <c r="C154" s="218">
-        <v>7.2592607054365696E-4</v>
+        <v>0</v>
       </c>
       <c r="D154" s="218">
-        <v>7.7605780225674197E-4</v>
+        <v>0</v>
       </c>
       <c r="E154" s="218">
-        <v>8.2965158145170096E-4</v>
+        <v>0</v>
       </c>
       <c r="F154" s="218">
-        <v>8.8694649368088198E-4</v>
+        <v>0</v>
       </c>
       <c r="G154" s="218">
-        <v>9.4819813550684796E-4</v>
+        <v>0</v>
       </c>
       <c r="H154" s="218">
-        <v>1.0136797547363101E-3</v>
+        <v>0</v>
       </c>
       <c r="I154" s="218">
-        <v>1.01309326178499E-3</v>
+        <v>0</v>
       </c>
       <c r="J154" s="218">
-        <v>1.3144040155252199E-3</v>
+        <v>0</v>
       </c>
       <c r="K154" s="218">
-        <v>1.52297557133811E-3</v>
+        <v>0</v>
       </c>
       <c r="L154" s="218">
-        <v>1.61571476926546E-3</v>
+        <v>0</v>
       </c>
       <c r="M154" s="218">
-        <v>1.71754460793825E-3</v>
+        <v>0</v>
       </c>
       <c r="N154" s="218">
-        <v>1.7596254771954001E-3</v>
+        <v>0</v>
       </c>
       <c r="O154" s="218">
-        <v>1.57282747220024E-3</v>
+        <v>0</v>
       </c>
       <c r="P154" s="218">
-        <v>1.7132925340411899E-3</v>
+        <v>0</v>
       </c>
       <c r="Q154" s="218">
-        <v>2.0327112576533999E-3</v>
+        <v>0</v>
       </c>
       <c r="R154" s="218">
-        <v>2.3423062243310201E-3</v>
+        <v>0</v>
       </c>
       <c r="S154" s="218">
-        <v>2.5946448166361E-3</v>
+        <v>0</v>
       </c>
       <c r="T154" s="218">
-        <v>2.8524817803597998E-3</v>
+        <v>0</v>
       </c>
       <c r="U154" s="218">
-        <v>2.7576165454839198E-3</v>
+        <v>0</v>
       </c>
       <c r="V154" s="218">
-        <v>2.8051957861596902E-3</v>
+        <v>0</v>
       </c>
       <c r="W154" s="218">
-        <v>2.5922988448308201E-3</v>
-      </c>
-      <c r="X154" s="218" t="s">
-        <v>274</v>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="X154" s="218">
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="155" spans="1:24">
       <c r="A155" s="221" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C155" s="234"/>
       <c r="D155" s="234"/>
@@ -37947,7 +37947,7 @@
     </row>
     <row r="156" spans="1:24">
       <c r="A156" s="173" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B156" s="174" t="s">
         <v>56</v>
@@ -38019,7 +38019,7 @@
     </row>
     <row r="157" spans="1:24">
       <c r="A157" s="173" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B157" s="174" t="s">
         <v>56</v>
@@ -38091,7 +38091,7 @@
     </row>
     <row r="158" spans="1:24">
       <c r="A158" s="173" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B158" s="174" t="s">
         <v>56</v>
@@ -38163,7 +38163,7 @@
     </row>
     <row r="159" spans="1:24">
       <c r="A159" s="173" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B159" s="174" t="s">
         <v>56</v>
@@ -38235,7 +38235,7 @@
     </row>
     <row r="160" spans="1:24">
       <c r="A160" s="173" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B160" s="174" t="s">
         <v>56</v>
@@ -38307,7 +38307,7 @@
     </row>
     <row r="161" spans="1:29">
       <c r="A161" s="225" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C161" s="234"/>
       <c r="D161" s="234"/>
@@ -38334,7 +38334,7 @@
     </row>
     <row r="162" spans="1:29">
       <c r="A162" s="173" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B162" s="183" t="s">
         <v>3</v>
@@ -38406,7 +38406,7 @@
     </row>
     <row r="163" spans="1:29">
       <c r="A163" s="173" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B163" s="183" t="s">
         <v>3</v>
@@ -38478,7 +38478,7 @@
     </row>
     <row r="164" spans="1:29">
       <c r="A164" s="173" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B164" s="183" t="s">
         <v>3</v>
@@ -38550,7 +38550,7 @@
     </row>
     <row r="165" spans="1:29">
       <c r="A165" s="226" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C165" s="234"/>
       <c r="D165" s="234"/>
@@ -38577,7 +38577,7 @@
     </row>
     <row r="166" spans="1:29">
       <c r="A166" s="173" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B166" s="183" t="s">
         <v>3</v>
@@ -38649,7 +38649,7 @@
     </row>
     <row r="167" spans="1:29">
       <c r="A167" s="173" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B167" s="183" t="s">
         <v>3</v>
@@ -38721,7 +38721,7 @@
     </row>
     <row r="168" spans="1:29">
       <c r="A168" s="173" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B168" s="183" t="s">
         <v>3</v>
@@ -38817,7 +38817,7 @@
     </row>
     <row r="170" spans="1:29">
       <c r="A170" s="173" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B170" s="183" t="s">
         <v>56</v>
@@ -38887,7 +38887,7 @@
       </c>
       <c r="X170" s="231"/>
       <c r="Z170" s="173" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AA170" s="6" t="s">
         <v>3</v>
@@ -38897,7 +38897,7 @@
         <v>6.4355172135845518E-2</v>
       </c>
       <c r="AC170" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -38926,7 +38926,7 @@
     </row>
     <row r="172" spans="1:29">
       <c r="A172" s="173" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>56</v>
@@ -38998,13 +38998,13 @@
     </row>
     <row r="173" spans="1:29">
       <c r="A173" s="166" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B173" s="207"/>
     </row>
     <row r="174" spans="1:29">
       <c r="A174" s="173" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B174" s="174" t="s">
         <v>56</v>
@@ -39080,7 +39080,7 @@
     </row>
     <row r="175" spans="1:29">
       <c r="A175" s="173" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B175" s="174" t="s">
         <v>56</v>
@@ -39156,7 +39156,7 @@
     </row>
     <row r="176" spans="1:29">
       <c r="A176" s="173" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B176" s="174" t="s">
         <v>56</v>
@@ -39232,7 +39232,7 @@
     </row>
     <row r="177" spans="1:26">
       <c r="A177" s="173" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B177" s="174" t="s">
         <v>56</v>
@@ -39308,7 +39308,7 @@
     </row>
     <row r="178" spans="1:26">
       <c r="A178" s="173" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B178" s="174" t="s">
         <v>56</v>
@@ -39381,15 +39381,15 @@
       </c>
       <c r="Y178" s="253"/>
       <c r="Z178" s="254" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="179" spans="1:26">
       <c r="A179" s="173" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B179" s="174" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C179" s="218">
         <v>0</v>
@@ -39465,57 +39465,57 @@
     </row>
     <row r="182" spans="1:26">
       <c r="A182" s="255" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B182" s="260" t="s">
+        <v>318</v>
+      </c>
+      <c r="C182" s="261" t="s">
         <v>319</v>
       </c>
-      <c r="C182" s="261" t="s">
+      <c r="D182" s="261" t="s">
         <v>320</v>
       </c>
-      <c r="D182" s="261" t="s">
+      <c r="E182" s="261" t="s">
         <v>321</v>
       </c>
-      <c r="E182" s="261" t="s">
+      <c r="F182" s="261" t="s">
         <v>322</v>
       </c>
-      <c r="F182" s="261" t="s">
+      <c r="G182" s="261" t="s">
         <v>323</v>
       </c>
-      <c r="G182" s="261" t="s">
+      <c r="H182" s="261" t="s">
         <v>324</v>
       </c>
-      <c r="H182" s="261" t="s">
+      <c r="I182" s="261" t="s">
         <v>325</v>
       </c>
-      <c r="I182" s="261" t="s">
+      <c r="J182" s="261" t="s">
         <v>326</v>
       </c>
-      <c r="J182" s="261" t="s">
+      <c r="K182" s="261" t="s">
         <v>327</v>
       </c>
-      <c r="K182" s="261" t="s">
+      <c r="L182" s="261" t="s">
         <v>328</v>
       </c>
-      <c r="L182" s="261" t="s">
+      <c r="M182" s="261" t="s">
         <v>329</v>
       </c>
-      <c r="M182" s="261" t="s">
+      <c r="N182" s="261" t="s">
         <v>330</v>
       </c>
-      <c r="N182" s="261" t="s">
+      <c r="O182" s="261" t="s">
         <v>331</v>
       </c>
-      <c r="O182" s="261" t="s">
+      <c r="P182" s="261" t="s">
         <v>332</v>
-      </c>
-      <c r="P182" s="261" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="183" spans="1:26">
       <c r="A183" s="256" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B183" s="20">
         <v>3.19497005188102E-3</v>
@@ -39565,7 +39565,7 @@
     </row>
     <row r="184" spans="1:26">
       <c r="A184" s="256" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B184" s="20">
         <v>7.8374948309083606E-2</v>
@@ -39615,7 +39615,7 @@
     </row>
     <row r="185" spans="1:26">
       <c r="A185" s="256" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B185" s="20">
         <v>8.59462824392432E-3</v>
@@ -39665,7 +39665,7 @@
     </row>
     <row r="186" spans="1:26">
       <c r="A186" s="256" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B186" s="20">
         <v>1.94235679619079E-2</v>
@@ -39715,7 +39715,7 @@
     </row>
     <row r="187" spans="1:26">
       <c r="A187" s="256" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B187" s="20">
         <v>3.9873808391657203E-2</v>
@@ -39765,7 +39765,7 @@
     </row>
     <row r="188" spans="1:26">
       <c r="A188" s="255" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B188" s="20"/>
       <c r="C188" s="20"/>
@@ -39785,7 +39785,7 @@
     </row>
     <row r="189" spans="1:26">
       <c r="A189" s="257" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B189" s="20">
         <v>0</v>
@@ -39835,7 +39835,7 @@
     </row>
     <row r="190" spans="1:26">
       <c r="A190" s="257" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B190" s="20">
         <v>0</v>
@@ -39885,7 +39885,7 @@
     </row>
     <row r="191" spans="1:26">
       <c r="A191" s="257" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B191" s="20">
         <v>0</v>
@@ -39935,7 +39935,7 @@
     </row>
     <row r="192" spans="1:26">
       <c r="A192" s="257" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B192" s="20">
         <v>0</v>
@@ -39985,7 +39985,7 @@
     </row>
     <row r="193" spans="1:16">
       <c r="A193" s="257" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B193" s="20">
         <v>0</v>
@@ -40035,7 +40035,7 @@
     </row>
     <row r="194" spans="1:16">
       <c r="A194" s="258" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B194" s="20"/>
       <c r="C194" s="20"/>
@@ -40055,7 +40055,7 @@
     </row>
     <row r="195" spans="1:16">
       <c r="A195" s="257" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B195" s="20">
         <v>4.33427061003459E-3</v>
@@ -40105,7 +40105,7 @@
     </row>
     <row r="196" spans="1:16">
       <c r="A196" s="257" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B196" s="20">
         <v>2.1953290779956499E-2</v>
@@ -40155,7 +40155,7 @@
     </row>
     <row r="197" spans="1:16">
       <c r="A197" s="257" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B197" s="20">
         <v>2.5375451485255999E-2</v>
@@ -40205,7 +40205,7 @@
     </row>
     <row r="198" spans="1:16">
       <c r="A198" s="257" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B198" s="20">
         <v>1.08158724337356E-2</v>
@@ -40255,7 +40255,7 @@
     </row>
     <row r="199" spans="1:16">
       <c r="A199" s="257" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B199" s="20">
         <v>1.0890999470972801E-2</v>
@@ -40304,19 +40304,19 @@
       </c>
     </row>
     <row r="202" spans="1:16">
-      <c r="A202" s="270" t="s">
-        <v>343</v>
-      </c>
-      <c r="B202" s="269"/>
-      <c r="C202" s="269"/>
-      <c r="D202" s="269"/>
+      <c r="A202" s="269" t="s">
+        <v>342</v>
+      </c>
+      <c r="B202" s="268"/>
+      <c r="C202" s="268"/>
+      <c r="D202" s="268"/>
     </row>
     <row r="203" spans="1:16">
       <c r="A203" s="263" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B203" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C203" s="262">
         <v>5.0000000000000001E-3</v>
@@ -40325,88 +40325,100 @@
     </row>
     <row r="204" spans="1:16">
       <c r="A204" s="263" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B204" s="35" t="s">
         <v>252</v>
       </c>
       <c r="C204" s="262">
-        <v>0</v>
+        <f>$E$207*Europe!max_PE_geot_elec_potential</f>
+        <v>1.6729957894736841E-4</v>
       </c>
       <c r="D204" s="39"/>
     </row>
     <row r="205" spans="1:16">
       <c r="A205" s="263" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B205" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C205" s="262">
-        <v>1.25E-3</v>
+        <f>Europe!max_PHS_potential*Austria!$E$207</f>
+        <v>1.2674210526315789E-3</v>
       </c>
       <c r="D205" s="39"/>
     </row>
     <row r="206" spans="1:16">
       <c r="A206" s="263" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B206" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C206" s="262">
-        <v>0</v>
+        <f>$E$207*Europe!max_oceanic_potential</f>
+        <v>9.2944210526315791E-6</v>
       </c>
       <c r="D206" s="39"/>
+      <c r="E206" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="207" spans="1:16">
       <c r="A207" s="263" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B207" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="C207" s="279">
+        <f>$E$207*Europe!max_onshore_wind_potential</f>
+        <v>2.1123684210526314E-3</v>
+      </c>
+      <c r="D207" s="39"/>
+      <c r="E207">
+        <f>32108/3800000</f>
+        <v>8.4494736842105258E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16">
+      <c r="A208" s="267" t="s">
         <v>336</v>
       </c>
-      <c r="C207" s="262">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D207" s="39"/>
-    </row>
-    <row r="208" spans="1:16">
-      <c r="A208" s="268" t="s">
-        <v>337</v>
-      </c>
-      <c r="B208" s="267" t="s">
-        <v>336</v>
-      </c>
-      <c r="C208" s="266">
-        <v>0</v>
+      <c r="B208" s="266" t="s">
+        <v>335</v>
+      </c>
+      <c r="C208" s="262">
+        <f>$E$207*Europe!max_offshore_wind_potential</f>
+        <v>8.4494736842105264E-4</v>
       </c>
       <c r="D208" s="39"/>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="274" t="s">
-        <v>351</v>
-      </c>
-      <c r="B209" s="275"/>
-      <c r="C209" s="275"/>
+      <c r="A209" s="273" t="s">
+        <v>350</v>
+      </c>
+      <c r="B209" s="274"/>
+      <c r="C209" s="274"/>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="276" t="s">
-        <v>346</v>
-      </c>
-      <c r="B210" s="277" t="s">
+      <c r="A210" s="275" t="s">
+        <v>345</v>
+      </c>
+      <c r="B210" s="276" t="s">
         <v>60</v>
       </c>
-      <c r="C210" s="278">
+      <c r="C210" s="277">
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="263" t="s">
+        <v>351</v>
+      </c>
+      <c r="B211" s="220" t="s">
         <v>352</v>
-      </c>
-      <c r="B211" s="220" t="s">
-        <v>353</v>
       </c>
       <c r="C211" s="262">
         <v>1</v>
@@ -40414,25 +40426,25 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="263" t="s">
-        <v>354</v>
-      </c>
-      <c r="B212" s="279" t="s">
-        <v>334</v>
+        <v>353</v>
+      </c>
+      <c r="B212" s="278" t="s">
+        <v>333</v>
       </c>
       <c r="C212" s="262">
         <v>0.25</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="270" t="s">
-        <v>348</v>
-      </c>
-      <c r="B213" s="269"/>
-      <c r="C213" s="269"/>
+      <c r="A213" s="269" t="s">
+        <v>347</v>
+      </c>
+      <c r="B213" s="268"/>
+      <c r="C213" s="268"/>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="263" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B214" s="35" t="s">
         <v>252</v>
@@ -40484,7 +40496,7 @@
     <mergeCell ref="C52:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="B182:P182">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
